--- a/data-raw/iussp.xlsx
+++ b/data-raw/iussp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Romaniuk" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="Gompertz" sheetId="5" r:id="rId3"/>
     <sheet name="UN" sheetId="6" r:id="rId4"/>
     <sheet name="Booth" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="112">
   <si>
     <t>x</t>
   </si>
@@ -371,16 +372,51 @@
   <si>
     <t>delta_adj</t>
   </si>
+  <si>
+    <t>Age x</t>
+  </si>
+  <si>
+    <t>CD West 30</t>
+  </si>
+  <si>
+    <t>UN LA 60</t>
+  </si>
+  <si>
+    <t>lx propn.</t>
+  </si>
+  <si>
+    <t>Yx</t>
+  </si>
+  <si>
+    <t>logit lx</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="General_)"/>
+    <numFmt numFmtId="167" formatCode="0.0000_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,16 +454,38 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Courier"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -435,11 +493,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -457,9 +545,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -976,11 +1099,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="194667232"/>
-        <c:axId val="194587568"/>
+        <c:axId val="213323688"/>
+        <c:axId val="213324080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="194667232"/>
+        <c:axId val="213323688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -992,12 +1115,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194587568"/>
+        <c:crossAx val="213324080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="194587568"/>
+        <c:axId val="213324080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1009,7 +1132,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194667232"/>
+        <c:crossAx val="213323688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5.0000000000000017E-2"/>
@@ -1782,11 +1905,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="195615848"/>
-        <c:axId val="195616232"/>
+        <c:axId val="213324864"/>
+        <c:axId val="213325256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195615848"/>
+        <c:axId val="213324864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -1798,12 +1921,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195616232"/>
+        <c:crossAx val="213325256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195616232"/>
+        <c:axId val="213325256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1814,7 +1937,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195615848"/>
+        <c:crossAx val="213324864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2549,11 +2672,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="195637664"/>
-        <c:axId val="195997072"/>
+        <c:axId val="213326432"/>
+        <c:axId val="213326824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195637664"/>
+        <c:axId val="213326432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2563,12 +2686,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195997072"/>
+        <c:crossAx val="213326824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195997072"/>
+        <c:axId val="213326824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2579,14 +2702,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195637664"/>
+        <c:crossAx val="213326432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="0"/>
@@ -2616,7 +2738,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3485,11 +3606,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="194429288"/>
-        <c:axId val="195371880"/>
+        <c:axId val="215314992"/>
+        <c:axId val="215315384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="194429288"/>
+        <c:axId val="215314992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3532,7 +3653,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195371880"/>
+        <c:crossAx val="215315384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3540,7 +3661,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195371880"/>
+        <c:axId val="215315384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3591,7 +3712,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194429288"/>
+        <c:crossAx val="215314992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3605,7 +3726,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4002,7 +4122,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>a=0.3; b=0.7; TFR=3</c:v>
+                  <c:v>a=0; b=1; TFR=3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4158,127 +4278,127 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>3.2801352521017874E-3</c:v>
+                  <c:v>1.3435349876977748E-10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5909370394988923E-2</c:v>
+                  <c:v>5.4191162140723668E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2249469571464096E-2</c:v>
+                  <c:v>6.8335990931917267E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.490586183584845E-2</c:v>
+                  <c:v>1.2941113784893361E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10369128842878717</c:v>
+                  <c:v>8.027219373752871E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12497284128992894</c:v>
+                  <c:v>2.5652367630270706E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14197432297277182</c:v>
+                  <c:v>5.6234059602161546E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13658537533057705</c:v>
+                  <c:v>8.3510015322307465E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.13269894817292202</c:v>
+                  <c:v>0.10806748676794131</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.12559294927407005</c:v>
+                  <c:v>0.12465302829228724</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.12098231490922717</c:v>
+                  <c:v>0.13810300383021135</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.114265910008778</c:v>
+                  <c:v>0.14418899920622993</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.10856004743884129</c:v>
+                  <c:v>0.14712179948892828</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.10380112253965645</c:v>
+                  <c:v>0.14794857952431278</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.9672052387900278E-2</c:v>
+                  <c:v>0.14706298126481937</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.6757781723556369E-2</c:v>
+                  <c:v>0.14596340854598344</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.3811893761164278E-2</c:v>
+                  <c:v>0.14322771024812664</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.0916877214046288E-2</c:v>
+                  <c:v>0.13927379711631749</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.8562898056106731E-2</c:v>
+                  <c:v>0.13510623724358672</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.6352465632406727E-2</c:v>
+                  <c:v>0.13031227054058592</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.4023240829262158E-2</c:v>
+                  <c:v>0.12466195215314746</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.1750504289940462E-2</c:v>
+                  <c:v>0.11856805980294338</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.987773935189868E-2</c:v>
+                  <c:v>0.11262762653311509</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.8178813576020523E-2</c:v>
+                  <c:v>0.10656860715707539</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.6549813661659472E-2</c:v>
+                  <c:v>0.10029956096751858</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.5098748957915462E-2</c:v>
+                  <c:v>9.3996621826954341E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.3566481145613483E-2</c:v>
+                  <c:v>8.7359735990932164E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.2215239414129329E-2</c:v>
+                  <c:v>8.0722942608245307E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.0859492585805262E-2</c:v>
+                  <c:v>7.3857195064786496E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.8783671187368056E-2</c:v>
+                  <c:v>6.6093157832901483E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.543565952534669E-2</c:v>
+                  <c:v>5.7191171722197565E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.9512662513415582E-2</c:v>
+                  <c:v>4.6625437405151127E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.2901098223373744E-2</c:v>
+                  <c:v>3.6556760545894074E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.4751622822710613E-2</c:v>
+                  <c:v>2.6776266185235875E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.5247694835707333E-2</c:v>
+                  <c:v>1.7927408565766023E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.5863198161466872E-2</c:v>
+                  <c:v>1.1008040313650325E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.9537363656043971E-2</c:v>
+                  <c:v>6.8119929756641495E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.4588452315830502E-2</c:v>
+                  <c:v>3.9824542606874402E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.0499130287495162E-2</c:v>
+                  <c:v>2.0228737362728566E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.1542485778246494E-3</c:v>
+                  <c:v>5.2526323182044976E-4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.1197886028097059E-5</c:v>
+                  <c:v>9.1770682120184688E-7</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0</c:v>
@@ -4302,11 +4422,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="195711616"/>
-        <c:axId val="195549968"/>
+        <c:axId val="213328392"/>
+        <c:axId val="213328000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195711616"/>
+        <c:axId val="213328392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -4318,12 +4438,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195549968"/>
+        <c:crossAx val="213328000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195549968"/>
+        <c:axId val="213328000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.3000000000000001"/>
@@ -4335,7 +4455,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195711616"/>
+        <c:crossAx val="213328392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4938,11 +5058,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="AE1" max="12" page="10" val="12"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="AE1" max="12" page="10" val="6"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="AE2" inc="5" max="140" min="70" page="10" val="70"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="AE2" inc="5" max="140" min="70" page="10" val="100"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8904,7 +9024,7 @@
   <dimension ref="A1:AN53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8923,10 +9043,10 @@
       </c>
       <c r="AD1">
         <f>(AE1-6)/20</f>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AE1">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
@@ -8935,10 +9055,10 @@
       </c>
       <c r="AD2">
         <f>AE2/100</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9044,7 +9164,7 @@
       </c>
       <c r="H6" s="5">
         <f>(G7-G6)*$AD$3</f>
-        <v>3.2801352521017874E-3</v>
+        <v>1.3435349876977748E-10</v>
       </c>
       <c r="I6" s="5">
         <v>0</v>
@@ -9070,7 +9190,7 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="5">
         <f>(Q7-Q6)*$AD$3</f>
-        <v>3.2801352521017874E-3</v>
+        <v>1.3435349876977748E-10</v>
       </c>
       <c r="S6">
         <v>10</v>
@@ -9109,15 +9229,15 @@
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F50" si="1">$AD$1+$AD$2*E7</f>
-        <v>-1.919637</v>
+        <v>-3.1709100000000001</v>
       </c>
       <c r="G7" s="5">
         <f>EXP(-EXP(-F7))</f>
-        <v>1.0933784173672624E-3</v>
+        <v>4.4784499589925825E-11</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" ref="H7:H50" si="2">(G8-G7)*$AD$3</f>
-        <v>1.5909370394988923E-2</v>
+        <v>5.4191162140723668E-7</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -9143,11 +9263,11 @@
       </c>
       <c r="Q7" s="5">
         <f t="shared" ref="Q7:Q50" si="5">EXP(-EXP(-($AD$1+$AD$2*$N7)))</f>
-        <v>1.0933784173672624E-3</v>
+        <v>4.4784499589925825E-11</v>
       </c>
       <c r="R7" s="5">
         <f>(Q8-Q7)*$AD$3</f>
-        <v>1.5909370394988923E-2</v>
+        <v>5.4191162140723668E-7</v>
       </c>
       <c r="S7">
         <v>11</v>
@@ -9207,20 +9327,20 @@
         <v>1.8068199163533548E-7</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" ref="E7:E50" si="11">-LN(-LN(D8))</f>
+        <f t="shared" ref="E8:E50" si="11">-LN(-LN(D8))</f>
         <v>-2.74255</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="1"/>
-        <v>-1.6197849999999998</v>
+        <v>-2.74255</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" ref="G8:G50" si="12">EXP(-EXP(-F8))</f>
-        <v>6.39650188236357E-3</v>
+        <v>1.8068199163533548E-7</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="2"/>
-        <v>4.2249469571464096E-2</v>
+        <v>6.8335990931917267E-5</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -9246,11 +9366,11 @@
       </c>
       <c r="Q8" s="5">
         <f t="shared" si="5"/>
-        <v>6.39650188236357E-3</v>
+        <v>1.8068199163533548E-7</v>
       </c>
       <c r="R8" s="5">
         <f>(Q9-Q8)*$AD$3</f>
-        <v>4.2249469571464096E-2</v>
+        <v>6.8335990931917267E-5</v>
       </c>
       <c r="S8">
         <v>12</v>
@@ -9285,7 +9405,7 @@
       </c>
       <c r="AA8">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8">
         <f t="shared" si="10"/>
@@ -9305,7 +9425,7 @@
         <v>4.3137045949644538E-4</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" ref="D8:D50" si="17">D8+C8</f>
+        <f t="shared" ref="D9:D50" si="17">D8+C8</f>
         <v>2.2959345635607759E-5</v>
       </c>
       <c r="E9" s="5">
@@ -9314,15 +9434,15 @@
       </c>
       <c r="F9" s="5">
         <f t="shared" si="1"/>
-        <v>-1.3579779999999997</v>
+        <v>-2.3685399999999999</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="12"/>
-        <v>2.0479658406184934E-2</v>
+        <v>2.2959345635607759E-5</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="2"/>
-        <v>7.490586183584845E-2</v>
+        <v>1.2941113784893361E-3</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -9348,11 +9468,11 @@
       </c>
       <c r="Q9" s="5">
         <f t="shared" si="5"/>
-        <v>2.0479658406184934E-2</v>
+        <v>2.2959345635607759E-5</v>
       </c>
       <c r="R9" s="5">
-        <f t="shared" ref="R6:R49" si="19">(Q10-Q9)*$AD$3</f>
-        <v>7.490586183584845E-2</v>
+        <f t="shared" ref="R9:R49" si="19">(Q10-Q9)*$AD$3</f>
+        <v>1.2941113784893361E-3</v>
       </c>
       <c r="S9">
         <v>13</v>
@@ -9387,7 +9507,7 @@
       </c>
       <c r="AA9">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9">
         <f t="shared" si="10"/>
@@ -9415,15 +9535,15 @@
       </c>
       <c r="F10" s="5">
         <f t="shared" si="1"/>
-        <v>-1.1285529999999997</v>
+        <v>-2.0407899999999999</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="12"/>
-        <v>4.5448279018134419E-2</v>
+        <v>4.5432980513205316E-4</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="2"/>
-        <v>0.10369128842878717</v>
+        <v>8.027219373752871E-3</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -9449,11 +9569,11 @@
       </c>
       <c r="Q10" s="5">
         <f t="shared" si="5"/>
-        <v>4.5448279018134419E-2</v>
+        <v>4.5432980513205316E-4</v>
       </c>
       <c r="R10" s="5">
         <f t="shared" si="19"/>
-        <v>0.10369128842878717</v>
+        <v>8.027219373752871E-3</v>
       </c>
       <c r="S10">
         <v>14</v>
@@ -9488,7 +9608,7 @@
       </c>
       <c r="AA10">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10">
         <f t="shared" si="10"/>
@@ -9516,15 +9636,15 @@
       </c>
       <c r="F11" s="5">
         <f t="shared" si="1"/>
-        <v>-0.9264699999999999</v>
+        <v>-1.7521</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="12"/>
-        <v>8.001204182773014E-2</v>
+        <v>3.1300695963830103E-3</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="2"/>
-        <v>0.12497284128992894</v>
+        <v>2.5652367630270706E-2</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -9550,11 +9670,11 @@
       </c>
       <c r="Q11" s="5">
         <f t="shared" si="5"/>
-        <v>8.001204182773014E-2</v>
+        <v>3.1300695963830103E-3</v>
       </c>
       <c r="R11" s="5">
         <f t="shared" si="19"/>
-        <v>0.12497284128992894</v>
+        <v>2.5652367630270706E-2</v>
       </c>
       <c r="S11">
         <v>15</v>
@@ -9589,7 +9709,7 @@
       </c>
       <c r="AA11">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11">
         <f t="shared" si="10"/>
@@ -9617,15 +9737,15 @@
       </c>
       <c r="F12" s="5">
         <f t="shared" si="1"/>
-        <v>-0.74500199999999994</v>
+        <v>-1.4928600000000001</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="12"/>
-        <v>0.12166965559103979</v>
+        <v>1.1680858806473245E-2</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="2"/>
-        <v>0.14197432297277182</v>
+        <v>5.6234059602161546E-2</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -9651,11 +9771,11 @@
       </c>
       <c r="Q12" s="5">
         <f t="shared" si="5"/>
-        <v>0.12166965559103979</v>
+        <v>1.1680858806473245E-2</v>
       </c>
       <c r="R12" s="5">
         <f t="shared" si="19"/>
-        <v>0.14197432297277182</v>
+        <v>5.6234059602161546E-2</v>
       </c>
       <c r="S12">
         <v>16</v>
@@ -9718,15 +9838,15 @@
       </c>
       <c r="F13" s="5">
         <f t="shared" si="1"/>
-        <v>-0.57542699999999991</v>
+        <v>-1.25061</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="12"/>
-        <v>0.16899442991529706</v>
+        <v>3.0425545340527094E-2</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="2"/>
-        <v>0.13658537533057705</v>
+        <v>8.3510015322307465E-2</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -9752,11 +9872,11 @@
       </c>
       <c r="Q13" s="5">
         <f t="shared" si="5"/>
-        <v>0.16899442991529706</v>
+        <v>3.0425545340527094E-2</v>
       </c>
       <c r="R13" s="5">
         <f t="shared" si="19"/>
-        <v>0.13658537533057705</v>
+        <v>8.3510015322307465E-2</v>
       </c>
       <c r="S13">
         <v>17</v>
@@ -9819,15 +9939,15 @@
       </c>
       <c r="F14" s="5">
         <f t="shared" si="1"/>
-        <v>-0.43135300000000004</v>
+        <v>-1.0447900000000001</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="12"/>
-        <v>0.21452288835882274</v>
+        <v>5.8262217114629582E-2</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="2"/>
-        <v>0.13269894817292185</v>
+        <v>0.10806748676794131</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -9853,11 +9973,11 @@
       </c>
       <c r="Q14" s="5">
         <f t="shared" si="5"/>
-        <v>0.21452288835882274</v>
+        <v>5.8262217114629582E-2</v>
       </c>
       <c r="R14" s="5">
         <f t="shared" si="19"/>
-        <v>0.13269894817292202</v>
+        <v>0.10806748676794131</v>
       </c>
       <c r="S14">
         <v>18</v>
@@ -9874,9 +9994,9 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W14" t="str">
         <f t="shared" si="14"/>
-        <v>18.80205108170744</v>
+        <v/>
       </c>
       <c r="X14" t="str">
         <f t="shared" si="15"/>
@@ -9920,15 +10040,15 @@
       </c>
       <c r="F15" s="5">
         <f t="shared" si="1"/>
-        <v>-0.30148900000000006</v>
+        <v>-0.85927000000000009</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="12"/>
-        <v>0.25875587108313003</v>
+        <v>9.4284712703943355E-2</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="2"/>
-        <v>0.12559294927407022</v>
+        <v>0.12465302829228724</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -9954,11 +10074,11 @@
       </c>
       <c r="Q15" s="5">
         <f t="shared" si="5"/>
-        <v>0.25875587108313008</v>
+        <v>9.4284712703943355E-2</v>
       </c>
       <c r="R15" s="5">
         <f t="shared" si="19"/>
-        <v>0.12559294927407005</v>
+        <v>0.12465302829228724</v>
       </c>
       <c r="S15">
         <v>19</v>
@@ -10021,15 +10141,15 @@
       </c>
       <c r="F16" s="5">
         <f t="shared" si="1"/>
-        <v>-0.18391000000000002</v>
+        <v>-0.69130000000000003</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="12"/>
-        <v>0.3006201875078201</v>
+        <v>0.13583572213470577</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="2"/>
-        <v>0.12098231490922717</v>
+        <v>0.13810300383021135</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -10055,11 +10175,11 @@
       </c>
       <c r="Q16" s="5">
         <f t="shared" si="5"/>
-        <v>0.3006201875078201</v>
+        <v>0.13583572213470577</v>
       </c>
       <c r="R16" s="5">
         <f t="shared" si="19"/>
-        <v>0.12098231490922717</v>
+        <v>0.13810300383021135</v>
       </c>
       <c r="S16">
         <v>20</v>
@@ -10122,15 +10242,15 @@
       </c>
       <c r="F17" s="5">
         <f t="shared" si="1"/>
-        <v>-7.3274999999999979E-2</v>
+        <v>-0.53325</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="12"/>
-        <v>0.34094762581089583</v>
+        <v>0.18187005674477622</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" si="2"/>
-        <v>0.114265910008778</v>
+        <v>0.14418899920622993</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -10156,11 +10276,11 @@
       </c>
       <c r="Q17" s="5">
         <f t="shared" si="5"/>
-        <v>0.34094762581089583</v>
+        <v>0.18187005674477622</v>
       </c>
       <c r="R17" s="5">
         <f t="shared" si="19"/>
-        <v>0.114265910008778</v>
+        <v>0.14418899920622993</v>
       </c>
       <c r="S17">
         <v>21</v>
@@ -10232,15 +10352,15 @@
       </c>
       <c r="F18" s="5">
         <f t="shared" si="1"/>
-        <v>3.033199999999997E-2</v>
+        <v>-0.38524000000000003</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="12"/>
-        <v>0.3790362624804885</v>
+        <v>0.22993305648018619</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" si="2"/>
-        <v>0.10856004743884129</v>
+        <v>0.14712179948892828</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -10266,11 +10386,11 @@
       </c>
       <c r="Q18" s="5">
         <f t="shared" si="5"/>
-        <v>0.3790362624804885</v>
+        <v>0.22993305648018619</v>
       </c>
       <c r="R18" s="5">
         <f t="shared" si="19"/>
-        <v>0.10856004743884129</v>
+        <v>0.14712179948892828</v>
       </c>
       <c r="S18">
         <v>22</v>
@@ -10287,9 +10407,9 @@
         <f t="shared" si="13"/>
         <v>22.409190417521856</v>
       </c>
-      <c r="W18" t="str">
+      <c r="W18">
         <f t="shared" si="14"/>
-        <v/>
+        <v>22.409190417521856</v>
       </c>
       <c r="X18" t="str">
         <f t="shared" si="15"/>
@@ -10320,7 +10440,7 @@
       <c r="AL18" s="8"/>
       <c r="AM18" s="8" t="str">
         <f>"a="&amp;AD1&amp;"; b="&amp;AD2&amp;"; TFR="&amp;AD3</f>
-        <v>a=0.3; b=0.7; TFR=3</v>
+        <v>a=0; b=1; TFR=3</v>
       </c>
       <c r="AN18" s="8"/>
     </row>
@@ -10345,15 +10465,15 @@
       </c>
       <c r="F19" s="5">
         <f t="shared" si="1"/>
-        <v>0.12903900000000004</v>
+        <v>-0.24422999999999992</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="12"/>
-        <v>0.41522294496010226</v>
+        <v>0.27897365630982895</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="2"/>
-        <v>0.10380112253965645</v>
+        <v>0.14794857952431278</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -10379,11 +10499,11 @@
       </c>
       <c r="Q19" s="5">
         <f t="shared" si="5"/>
-        <v>0.41522294496010226</v>
+        <v>0.27897365630982895</v>
       </c>
       <c r="R19" s="5">
         <f t="shared" si="19"/>
-        <v>0.10380112253965645</v>
+        <v>0.14794857952431278</v>
       </c>
       <c r="S19">
         <v>23</v>
@@ -10435,7 +10555,7 @@
       <c r="AL19" s="1"/>
       <c r="AM19" s="1">
         <f>MAX(U6:U51)</f>
-        <v>25.525621704902672</v>
+        <v>27.566340209862989</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
@@ -10459,15 +10579,15 @@
       </c>
       <c r="F20" s="5">
         <f t="shared" si="1"/>
-        <v>0.22451899999999997</v>
+        <v>-0.10783000000000005</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" si="12"/>
-        <v>0.44982331913998774</v>
+        <v>0.32828984948459988</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" si="2"/>
-        <v>9.9672052387900278E-2</v>
+        <v>0.14706298126481937</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -10493,11 +10613,11 @@
       </c>
       <c r="Q20" s="5">
         <f t="shared" si="5"/>
-        <v>0.44982331913998774</v>
+        <v>0.32828984948459988</v>
       </c>
       <c r="R20" s="5">
         <f t="shared" si="19"/>
-        <v>9.9672052387900278E-2</v>
+        <v>0.14706298126481937</v>
       </c>
       <c r="S20">
         <v>24</v>
@@ -10549,7 +10669,7 @@
       <c r="AL20" s="1"/>
       <c r="AM20" s="1">
         <f>SUMPRODUCT($A$6:$A$51,R6:R51)/SUM(R6:R51)</f>
-        <v>26.34903993011584</v>
+        <v>27.782746257823487</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
@@ -10573,15 +10693,15 @@
       </c>
       <c r="F21" s="5">
         <f t="shared" si="1"/>
-        <v>0.31794800000000001</v>
+        <v>2.5640000000000027E-2</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="12"/>
-        <v>0.48304733660262117</v>
+        <v>0.37731084323953967</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" si="2"/>
-        <v>9.6757781723556369E-2</v>
+        <v>0.14596340854598344</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -10607,11 +10727,11 @@
       </c>
       <c r="Q21" s="5">
         <f t="shared" si="5"/>
-        <v>0.48304733660262117</v>
+        <v>0.37731084323953967</v>
       </c>
       <c r="R21" s="5">
         <f t="shared" si="19"/>
-        <v>9.6757781723556369E-2</v>
+        <v>0.14596340854598344</v>
       </c>
       <c r="S21">
         <v>25</v>
@@ -10620,9 +10740,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="U21">
+      <c r="U21" t="str">
         <f t="shared" si="7"/>
-        <v>25.525621704902672</v>
+        <v/>
       </c>
       <c r="V21" t="str">
         <f t="shared" si="13"/>
@@ -10662,7 +10782,7 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2">
         <f>VLOOKUP(MAX(R6:R51),$R$6:$S$51,2,FALSE)</f>
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.25">
@@ -10686,15 +10806,15 @@
       </c>
       <c r="F22" s="5">
         <f t="shared" si="1"/>
-        <v>0.41097099999999998</v>
+        <v>0.15852999999999998</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="12"/>
-        <v>0.51529993051047329</v>
+        <v>0.42596531275486749</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" si="2"/>
-        <v>9.3811893761164278E-2</v>
+        <v>0.14322771024812664</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -10720,11 +10840,11 @@
       </c>
       <c r="Q22" s="5">
         <f t="shared" si="5"/>
-        <v>0.51529993051047329</v>
+        <v>0.42596531275486749</v>
       </c>
       <c r="R22" s="5">
         <f t="shared" si="19"/>
-        <v>9.3811893761164278E-2</v>
+        <v>0.14322771024812664</v>
       </c>
       <c r="S22">
         <v>26</v>
@@ -10775,7 +10895,7 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2">
         <f>MAX(Y6:Y51)-MAX(W6:W51)</f>
-        <v>15.467391452129384</v>
+        <v>11.231959072185425</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.25">
@@ -10799,15 +10919,15 @@
       </c>
       <c r="F23" s="5">
         <f t="shared" si="1"/>
-        <v>0.50402899999999995</v>
+        <v>0.29146999999999995</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="12"/>
-        <v>0.54657056176419472</v>
+        <v>0.47370788283757637</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" si="2"/>
-        <v>9.0916877214046621E-2</v>
+        <v>0.13927379711631749</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -10833,11 +10953,11 @@
       </c>
       <c r="Q23" s="5">
         <f t="shared" si="5"/>
-        <v>0.54657056176419472</v>
+        <v>0.47370788283757637</v>
       </c>
       <c r="R23" s="5">
         <f t="shared" si="19"/>
-        <v>9.0916877214046288E-2</v>
+        <v>0.13927379711631749</v>
       </c>
       <c r="S23">
         <v>27</v>
@@ -10846,9 +10966,9 @@
         <f>IF(AND(O23&lt;0.5,O24&gt;0.5),$A23+(0.5-O23)/(O24-O23),"")</f>
         <v>27.566340209862989</v>
       </c>
-      <c r="U23" t="str">
+      <c r="U23">
         <f>IF(AND(Q23&lt;0.5,Q24&gt;0.5),$A23+(0.5-Q23)/(Q24-Q23),"")</f>
-        <v/>
+        <v>27.566340209862989</v>
       </c>
       <c r="V23" t="str">
         <f t="shared" si="13"/>
@@ -10888,7 +11008,7 @@
       <c r="AL23" s="2"/>
       <c r="AM23" s="2">
         <f>SUM(AA6:AA51)</f>
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
@@ -10912,15 +11032,15 @@
       </c>
       <c r="F24" s="5">
         <f t="shared" si="1"/>
-        <v>0.59760500000000016</v>
+        <v>0.42515000000000019</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" si="12"/>
-        <v>0.57687618750221026</v>
+        <v>0.52013248187634886</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" si="2"/>
-        <v>8.8562898056106398E-2</v>
+        <v>0.13510623724358672</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -10946,11 +11066,11 @@
       </c>
       <c r="Q24" s="5">
         <f t="shared" si="5"/>
-        <v>0.57687618750221015</v>
+        <v>0.52013248187634886</v>
       </c>
       <c r="R24" s="5">
         <f t="shared" si="19"/>
-        <v>8.8562898056106731E-2</v>
+        <v>0.13510623724358672</v>
       </c>
       <c r="S24">
         <v>28</v>
@@ -11013,15 +11133,15 @@
       </c>
       <c r="F25" s="5">
         <f t="shared" si="1"/>
-        <v>0.69270700000000018</v>
+        <v>0.56101000000000023</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="12"/>
-        <v>0.60639715352091239</v>
+        <v>0.56516789429087777</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" si="2"/>
-        <v>8.6352465632406727E-2</v>
+        <v>0.13031227054058592</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -11047,11 +11167,11 @@
       </c>
       <c r="Q25" s="5">
         <f t="shared" si="5"/>
-        <v>0.60639715352091239</v>
+        <v>0.56516789429087777</v>
       </c>
       <c r="R25" s="5">
         <f t="shared" si="19"/>
-        <v>8.6352465632406727E-2</v>
+        <v>0.13031227054058592</v>
       </c>
       <c r="S25">
         <v>29</v>
@@ -11114,15 +11234,15 @@
       </c>
       <c r="F26" s="5">
         <f t="shared" si="1"/>
-        <v>0.78999999999999992</v>
+        <v>0.7</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" si="12"/>
-        <v>0.63518130873171463</v>
+        <v>0.60860531780440641</v>
       </c>
       <c r="H26" s="5">
         <f t="shared" si="2"/>
-        <v>8.4023240829262158E-2</v>
+        <v>0.12466195215314746</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -11148,11 +11268,11 @@
       </c>
       <c r="Q26" s="5">
         <f t="shared" si="5"/>
-        <v>0.63518130873171463</v>
+        <v>0.60860531780440641</v>
       </c>
       <c r="R26" s="5">
         <f t="shared" si="19"/>
-        <v>8.4023240829262158E-2</v>
+        <v>0.12466195215314746</v>
       </c>
       <c r="S26">
         <v>30</v>
@@ -11215,15 +11335,15 @@
       </c>
       <c r="F27" s="5">
         <f t="shared" si="1"/>
-        <v>0.88990400000000003</v>
+        <v>0.84272000000000014</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="12"/>
-        <v>0.66318905567480202</v>
+        <v>0.65015930185545556</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" si="2"/>
-        <v>8.1750504289940129E-2</v>
+        <v>0.11856805980294338</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -11249,11 +11369,11 @@
       </c>
       <c r="Q27" s="5">
         <f t="shared" si="5"/>
-        <v>0.66318905567480202</v>
+        <v>0.65015930185545556</v>
       </c>
       <c r="R27" s="5">
         <f t="shared" si="19"/>
-        <v>8.1750504289940462E-2</v>
+        <v>0.11856805980294338</v>
       </c>
       <c r="S27">
         <v>31</v>
@@ -11316,15 +11436,15 @@
       </c>
       <c r="F28" s="5">
         <f t="shared" si="1"/>
-        <v>0.99309799999999981</v>
+        <v>0.99013999999999991</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="12"/>
-        <v>0.69043922377144873</v>
+        <v>0.68968198845643669</v>
       </c>
       <c r="H28" s="5">
         <f t="shared" si="2"/>
-        <v>7.9877739351899013E-2</v>
+        <v>0.11262762653311509</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -11350,11 +11470,11 @@
       </c>
       <c r="Q28" s="5">
         <f t="shared" si="5"/>
-        <v>0.69043922377144884</v>
+        <v>0.68968198845643669</v>
       </c>
       <c r="R28" s="5">
         <f t="shared" si="19"/>
-        <v>7.987773935189868E-2</v>
+        <v>0.11262762653311509</v>
       </c>
       <c r="S28">
         <v>32</v>
@@ -11417,15 +11537,15 @@
       </c>
       <c r="F29" s="5">
         <f t="shared" si="1"/>
-        <v>1.100849</v>
+        <v>1.1440699999999999</v>
       </c>
       <c r="G29" s="5">
         <f t="shared" si="12"/>
-        <v>0.7170651368887484</v>
+        <v>0.72722453063414172</v>
       </c>
       <c r="H29" s="5">
         <f t="shared" si="2"/>
-        <v>7.8178813576020856E-2</v>
+        <v>0.10656860715707539</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -11451,11 +11571,11 @@
       </c>
       <c r="Q29" s="5">
         <f t="shared" si="5"/>
-        <v>0.7170651368887484</v>
+        <v>0.72722453063414172</v>
       </c>
       <c r="R29" s="5">
         <f t="shared" si="19"/>
-        <v>7.8178813576020523E-2</v>
+        <v>0.10656860715707539</v>
       </c>
       <c r="S29">
         <v>33</v>
@@ -11480,9 +11600,9 @@
         <f t="shared" si="15"/>
         <v>33.641149489707281</v>
       </c>
-      <c r="Y29" t="str">
+      <c r="Y29">
         <f t="shared" si="16"/>
-        <v/>
+        <v>33.641149489707281</v>
       </c>
       <c r="Z29">
         <f t="shared" si="8"/>
@@ -11518,15 +11638,15 @@
       </c>
       <c r="F30" s="5">
         <f t="shared" si="1"/>
-        <v>1.2143890000000002</v>
+        <v>1.3062700000000003</v>
       </c>
       <c r="G30" s="5">
         <f t="shared" si="12"/>
-        <v>0.74312474141408869</v>
+        <v>0.76274739968650018</v>
       </c>
       <c r="H30" s="5">
         <f t="shared" si="2"/>
-        <v>7.6549813661659138E-2</v>
+        <v>0.10029956096751858</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -11552,11 +11672,11 @@
       </c>
       <c r="Q30" s="5">
         <f t="shared" si="5"/>
-        <v>0.74312474141408857</v>
+        <v>0.76274739968650018</v>
       </c>
       <c r="R30" s="5">
         <f t="shared" si="19"/>
-        <v>7.6549813661659472E-2</v>
+        <v>0.10029956096751858</v>
       </c>
       <c r="S30">
         <v>34</v>
@@ -11581,9 +11701,9 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Y30">
+      <c r="Y30" t="str">
         <f t="shared" si="16"/>
-        <v>34.269442533836823</v>
+        <v/>
       </c>
       <c r="Z30">
         <f t="shared" si="8"/>
@@ -11619,15 +11739,15 @@
       </c>
       <c r="F31" s="5">
         <f t="shared" si="1"/>
-        <v>1.3351040000000001</v>
+        <v>1.47872</v>
       </c>
       <c r="G31" s="5">
         <f t="shared" si="12"/>
-        <v>0.76864134596797506</v>
+        <v>0.79618058667567304</v>
       </c>
       <c r="H31" s="5">
         <f t="shared" si="2"/>
-        <v>7.5098748957915462E-2</v>
+        <v>9.3996621826954341E-2</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
@@ -11653,11 +11773,11 @@
       </c>
       <c r="Q31" s="5">
         <f t="shared" si="5"/>
-        <v>0.76864134596797506</v>
+        <v>0.79618058667567304</v>
       </c>
       <c r="R31" s="5">
         <f t="shared" si="19"/>
-        <v>7.5098748957915462E-2</v>
+        <v>9.3996621826954341E-2</v>
       </c>
       <c r="S31">
         <v>35</v>
@@ -11720,15 +11840,15 @@
       </c>
       <c r="F32" s="5">
         <f t="shared" si="1"/>
-        <v>1.464982</v>
+        <v>1.6642600000000001</v>
       </c>
       <c r="G32" s="5">
         <f t="shared" si="12"/>
-        <v>0.79367426228728022</v>
+        <v>0.82751279395132449</v>
       </c>
       <c r="H32" s="5">
         <f t="shared" si="2"/>
-        <v>7.3566481145613816E-2</v>
+        <v>8.7359735990932164E-2</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -11754,11 +11874,11 @@
       </c>
       <c r="Q32" s="5">
         <f t="shared" si="5"/>
-        <v>0.79367426228728022</v>
+        <v>0.82751279395132449</v>
       </c>
       <c r="R32" s="5">
         <f t="shared" si="19"/>
-        <v>7.3566481145613483E-2</v>
+        <v>8.7359735990932164E-2</v>
       </c>
       <c r="S32">
         <v>36</v>
@@ -11821,15 +11941,15 @@
       </c>
       <c r="F33" s="5">
         <f t="shared" si="1"/>
-        <v>1.6061790000000002</v>
+        <v>1.8659700000000004</v>
       </c>
       <c r="G33" s="5">
         <f t="shared" si="12"/>
-        <v>0.81819642266915149</v>
+        <v>0.85663270594830188</v>
       </c>
       <c r="H33" s="5">
         <f t="shared" si="2"/>
-        <v>7.2215239414128995E-2</v>
+        <v>8.0722942608245307E-2</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -11855,11 +11975,11 @@
       </c>
       <c r="Q33" s="5">
         <f t="shared" si="5"/>
-        <v>0.81819642266915138</v>
+        <v>0.85663270594830188</v>
       </c>
       <c r="R33" s="5">
         <f t="shared" si="19"/>
-        <v>7.2215239414129329E-2</v>
+        <v>8.0722942608245307E-2</v>
       </c>
       <c r="S33">
         <v>37</v>
@@ -11922,15 +12042,15 @@
       </c>
       <c r="F34" s="5">
         <f t="shared" si="1"/>
-        <v>1.7622579999999999</v>
+        <v>2.08894</v>
       </c>
       <c r="G34" s="5">
         <f t="shared" si="12"/>
-        <v>0.84226816914052782</v>
+        <v>0.88354035348438364</v>
       </c>
       <c r="H34" s="5">
         <f t="shared" si="2"/>
-        <v>7.0859492585805262E-2</v>
+        <v>7.3857195064786496E-2</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -11956,11 +12076,11 @@
       </c>
       <c r="Q34" s="5">
         <f t="shared" si="5"/>
-        <v>0.84226816914052782</v>
+        <v>0.88354035348438364</v>
       </c>
       <c r="R34" s="5">
         <f t="shared" si="19"/>
-        <v>7.0859492585805262E-2</v>
+        <v>7.3857195064786496E-2</v>
       </c>
       <c r="S34">
         <v>38</v>
@@ -12023,15 +12143,15 @@
       </c>
       <c r="F35" s="5">
         <f t="shared" si="1"/>
-        <v>1.9379440000000001</v>
+        <v>2.3399200000000002</v>
       </c>
       <c r="G35" s="5">
         <f t="shared" si="12"/>
-        <v>0.86588800000246291</v>
+        <v>0.90815941850597914</v>
       </c>
       <c r="H35" s="5">
         <f t="shared" si="2"/>
-        <v>6.8783671187368056E-2</v>
+        <v>6.6093157832901483E-2</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -12057,11 +12177,11 @@
       </c>
       <c r="Q35" s="5">
         <f t="shared" si="5"/>
-        <v>0.86588800000246291</v>
+        <v>0.90815941850597914</v>
       </c>
       <c r="R35" s="5">
         <f t="shared" si="19"/>
-        <v>6.8783671187368056E-2</v>
+        <v>6.6093157832901483E-2</v>
       </c>
       <c r="S35">
         <v>39</v>
@@ -12124,15 +12244,15 @@
       </c>
       <c r="F36" s="5">
         <f t="shared" si="1"/>
-        <v>2.1382140000000001</v>
+        <v>2.6260200000000005</v>
       </c>
       <c r="G36" s="5">
         <f t="shared" si="12"/>
-        <v>0.88881589039825226</v>
+        <v>0.9301904711169463</v>
       </c>
       <c r="H36" s="5">
         <f t="shared" si="2"/>
-        <v>6.543565952534669E-2</v>
+        <v>5.7191171722197565E-2</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -12158,11 +12278,11 @@
       </c>
       <c r="Q36" s="5">
         <f t="shared" si="5"/>
-        <v>0.88881589039825226</v>
+        <v>0.9301904711169463</v>
       </c>
       <c r="R36" s="5">
         <f t="shared" si="19"/>
-        <v>6.543565952534669E-2</v>
+        <v>5.7191171722197565E-2</v>
       </c>
       <c r="S36">
         <v>40</v>
@@ -12225,15 +12345,15 @@
       </c>
       <c r="F37" s="5">
         <f t="shared" si="1"/>
-        <v>2.3684999999999996</v>
+        <v>2.9550000000000001</v>
       </c>
       <c r="G37" s="5">
         <f t="shared" si="12"/>
-        <v>0.91062777690670116</v>
+        <v>0.94925419502434549</v>
       </c>
       <c r="H37" s="5">
         <f t="shared" si="2"/>
-        <v>5.9512662513415582E-2</v>
+        <v>4.6625437405151127E-2</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -12259,11 +12379,11 @@
       </c>
       <c r="Q37" s="5">
         <f t="shared" si="5"/>
-        <v>0.91062777690670116</v>
+        <v>0.94925419502434549</v>
       </c>
       <c r="R37" s="5">
         <f t="shared" si="19"/>
-        <v>5.9512662513415582E-2</v>
+        <v>4.6625437405151127E-2</v>
       </c>
       <c r="S37">
         <v>41</v>
@@ -12326,15 +12446,15 @@
       </c>
       <c r="F38" s="5">
         <f t="shared" si="1"/>
-        <v>2.6301110000000008</v>
+        <v>3.3287300000000015</v>
       </c>
       <c r="G38" s="5">
         <f t="shared" si="12"/>
-        <v>0.93046533107783969</v>
+        <v>0.9647960074927292</v>
       </c>
       <c r="H38" s="5">
         <f t="shared" si="2"/>
-        <v>5.2901098223373744E-2</v>
+        <v>3.6556760545894074E-2</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -12360,11 +12480,11 @@
       </c>
       <c r="Q38" s="5">
         <f t="shared" si="5"/>
-        <v>0.93046533107783969</v>
+        <v>0.9647960074927292</v>
       </c>
       <c r="R38" s="5">
         <f t="shared" si="19"/>
-        <v>5.2901098223373744E-2</v>
+        <v>3.6556760545894074E-2</v>
       </c>
       <c r="S38">
         <v>42</v>
@@ -12427,15 +12547,15 @@
       </c>
       <c r="F39" s="5">
         <f t="shared" si="1"/>
-        <v>2.9318879999999989</v>
+        <v>3.7598399999999992</v>
       </c>
       <c r="G39" s="5">
         <f t="shared" si="12"/>
-        <v>0.94809903048563093</v>
+        <v>0.97698159434136056</v>
       </c>
       <c r="H39" s="5">
         <f t="shared" si="2"/>
-        <v>4.4751622822710613E-2</v>
+        <v>2.6776266185235875E-2</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
@@ -12461,11 +12581,11 @@
       </c>
       <c r="Q39" s="5">
         <f t="shared" si="5"/>
-        <v>0.94809903048563093</v>
+        <v>0.97698159434136056</v>
       </c>
       <c r="R39" s="5">
         <f t="shared" si="19"/>
-        <v>4.4751622822710613E-2</v>
+        <v>2.6776266185235875E-2</v>
       </c>
       <c r="S39">
         <v>43</v>
@@ -12500,7 +12620,7 @@
       </c>
       <c r="AA39">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB39">
         <f t="shared" si="10"/>
@@ -12528,15 +12648,15 @@
       </c>
       <c r="F40" s="5">
         <f t="shared" si="1"/>
-        <v>3.2784930000000005</v>
+        <v>4.2549900000000012</v>
       </c>
       <c r="G40" s="5">
         <f t="shared" si="12"/>
-        <v>0.96301623809320114</v>
+        <v>0.98590701640310585</v>
       </c>
       <c r="H40" s="5">
         <f t="shared" si="2"/>
-        <v>3.5247694835707333E-2</v>
+        <v>1.7927408565766023E-2</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -12562,11 +12682,11 @@
       </c>
       <c r="Q40" s="5">
         <f t="shared" si="5"/>
-        <v>0.96301623809320114</v>
+        <v>0.98590701640310585</v>
       </c>
       <c r="R40" s="5">
         <f t="shared" si="19"/>
-        <v>3.5247694835707333E-2</v>
+        <v>1.7927408565766023E-2</v>
       </c>
       <c r="S40">
         <v>44</v>
@@ -12601,7 +12721,7 @@
       </c>
       <c r="AA40">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB40">
         <f t="shared" si="10"/>
@@ -12629,15 +12749,15 @@
       </c>
       <c r="F41" s="5">
         <f t="shared" si="1"/>
-        <v>3.6667900000000011</v>
+        <v>4.8097000000000021</v>
       </c>
       <c r="G41" s="5">
         <f t="shared" si="12"/>
-        <v>0.97476546970510358</v>
+        <v>0.99188281925836119</v>
       </c>
       <c r="H41" s="5">
         <f t="shared" si="2"/>
-        <v>2.5863198161466872E-2</v>
+        <v>1.1008040313650325E-2</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
@@ -12663,11 +12783,11 @@
       </c>
       <c r="Q41" s="5">
         <f t="shared" si="5"/>
-        <v>0.97476546970510358</v>
+        <v>0.99188281925836119</v>
       </c>
       <c r="R41" s="5">
         <f t="shared" si="19"/>
-        <v>2.5863198161466872E-2</v>
+        <v>1.1008040313650325E-2</v>
       </c>
       <c r="S41">
         <v>45</v>
@@ -12730,15 +12850,15 @@
       </c>
       <c r="F42" s="5">
         <f t="shared" si="1"/>
-        <v>4.0891769999999967</v>
+        <v>5.4131099999999952</v>
       </c>
       <c r="G42" s="5">
         <f t="shared" si="12"/>
-        <v>0.98338653575892587</v>
+        <v>0.99555216602957797</v>
       </c>
       <c r="H42" s="5">
         <f t="shared" si="2"/>
-        <v>1.9537363656043638E-2</v>
+        <v>6.8119929756641495E-3</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
@@ -12764,11 +12884,11 @@
       </c>
       <c r="Q42" s="5">
         <f t="shared" si="5"/>
-        <v>0.98338653575892587</v>
+        <v>0.99555216602957797</v>
       </c>
       <c r="R42" s="5">
         <f t="shared" si="19"/>
-        <v>1.9537363656043971E-2</v>
+        <v>6.8119929756641495E-3</v>
       </c>
       <c r="S42">
         <v>46</v>
@@ -12831,15 +12951,15 @@
       </c>
       <c r="F43" s="5">
         <f t="shared" si="1"/>
-        <v>4.5900479999999835</v>
+        <v>6.1286399999999768</v>
       </c>
       <c r="G43" s="5">
         <f t="shared" si="12"/>
-        <v>0.98989899031094042</v>
+        <v>0.99782283035479935</v>
       </c>
       <c r="H43" s="5">
         <f t="shared" si="2"/>
-        <v>1.4588452315830502E-2</v>
+        <v>3.9824542606874402E-3</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -12865,11 +12985,11 @@
       </c>
       <c r="Q43" s="5">
         <f t="shared" si="5"/>
-        <v>0.98989899031094053</v>
+        <v>0.99782283035479935</v>
       </c>
       <c r="R43" s="5">
         <f t="shared" si="19"/>
-        <v>1.4588452315830502E-2</v>
+        <v>3.9824542606874402E-3</v>
       </c>
       <c r="S43">
         <v>47</v>
@@ -12932,15 +13052,15 @@
       </c>
       <c r="F44" s="5">
         <f t="shared" si="1"/>
-        <v>5.2491539999999812</v>
+        <v>7.0702199999999742</v>
       </c>
       <c r="G44" s="5">
         <f t="shared" si="12"/>
-        <v>0.99476180774955059</v>
+        <v>0.99915031510836183</v>
       </c>
       <c r="H44" s="5">
         <f t="shared" si="2"/>
-        <v>1.0499130287494829E-2</v>
+        <v>2.0228737362728566E-3</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
@@ -12966,11 +13086,11 @@
       </c>
       <c r="Q44" s="5">
         <f t="shared" si="5"/>
-        <v>0.9947618077495507</v>
+        <v>0.99915031510836183</v>
       </c>
       <c r="R44" s="5">
         <f t="shared" si="19"/>
-        <v>1.0499130287495162E-2</v>
+        <v>2.0228737362728566E-3</v>
       </c>
       <c r="S44">
         <v>48</v>
@@ -13033,15 +13153,15 @@
       </c>
       <c r="F45" s="5">
         <f t="shared" si="1"/>
-        <v>6.3538729999998971</v>
+        <v>8.6483899999998535</v>
       </c>
       <c r="G45" s="5">
         <f t="shared" si="12"/>
-        <v>0.9982615178453822</v>
+        <v>0.99982460635378612</v>
       </c>
       <c r="H45" s="5">
         <f t="shared" si="2"/>
-        <v>5.1542485778223179E-3</v>
+        <v>5.2526323182044976E-4</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
@@ -13067,11 +13187,11 @@
       </c>
       <c r="Q45" s="5">
         <f t="shared" si="5"/>
-        <v>0.99826151784538242</v>
+        <v>0.99982460635378612</v>
       </c>
       <c r="R45" s="5">
         <f t="shared" si="19"/>
-        <v>5.1542485778246494E-3</v>
+        <v>5.2526323182044976E-4</v>
       </c>
       <c r="S45">
         <v>49</v>
@@ -13134,11 +13254,11 @@
       </c>
       <c r="F46" s="5">
         <f t="shared" si="1"/>
-        <v>10.7999999999537</v>
+        <v>14.999999999933857</v>
       </c>
       <c r="G46" s="5">
         <f t="shared" si="12"/>
-        <v>0.9999796007046563</v>
+        <v>0.99999969409772627</v>
       </c>
       <c r="H46" s="5" t="e">
         <f t="shared" si="2"/>
@@ -13168,11 +13288,11 @@
       </c>
       <c r="Q46" s="5">
         <f t="shared" si="5"/>
-        <v>0.9999796007046573</v>
+        <v>0.99999969409772627</v>
       </c>
       <c r="R46" s="5">
         <f t="shared" si="19"/>
-        <v>6.1197886028097059E-5</v>
+        <v>9.1770682120184688E-7</v>
       </c>
       <c r="S46">
         <v>50</v>
@@ -13521,7 +13641,9 @@
       <c r="A50">
         <v>54</v>
       </c>
-      <c r="B50" s="5"/>
+      <c r="B50" s="5">
+        <v>0</v>
+      </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5">
         <f t="shared" si="17"/>
@@ -13610,6 +13732,9 @@
     <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>55</v>
+      </c>
+      <c r="B51" s="5">
+        <v>0</v>
       </c>
       <c r="K51">
         <f t="shared" si="3"/>
@@ -13759,7 +13884,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="A1:D8"/>
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13886,7 +14011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -14909,4 +15034,1492 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19">
+        <v>100000</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="19">
+        <v>100000</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="11"/>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="14"/>
+      <c r="M4" t="s">
+        <v>108</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
+        <v>107</v>
+      </c>
+      <c r="P4" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>110</v>
+      </c>
+      <c r="R4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>0</v>
+      </c>
+      <c r="B5" s="18">
+        <v>100000</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18">
+        <v>100000</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="13"/>
+      <c r="M5">
+        <v>100000</v>
+      </c>
+      <c r="N5">
+        <f>M5-M6</f>
+        <v>1629.1999999999971</v>
+      </c>
+      <c r="O5">
+        <f>N5/M5</f>
+        <v>1.629199999999997E-2</v>
+      </c>
+      <c r="P5">
+        <f>1-O5</f>
+        <v>0.98370800000000003</v>
+      </c>
+      <c r="Q5">
+        <f>5*(M5-N5)+2.5*N5</f>
+        <v>495927</v>
+      </c>
+      <c r="R5">
+        <f>SUM(Q5:Q$22)</f>
+        <v>7340739</v>
+      </c>
+      <c r="S5">
+        <f>R5/M5</f>
+        <v>73.407390000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17">
+        <v>61196</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="D6" s="17">
+        <v>-0.2278</v>
+      </c>
+      <c r="E6" s="17">
+        <v>98370.799999999988</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.85880000000000001</v>
+      </c>
+      <c r="G6" s="17">
+        <v>-0.90269999999999995</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="13">
+        <f>E6/$E$5</f>
+        <v>0.98370799999999992</v>
+      </c>
+      <c r="J6">
+        <f>0.5*LN((1-I6)/I6)</f>
+        <v>-2.050327457630106</v>
+      </c>
+      <c r="K6">
+        <f>M$1+M$2*J6</f>
+        <v>-2.050327457630106</v>
+      </c>
+      <c r="L6">
+        <f>1/(EXP(2*K6)+1)</f>
+        <v>0.98370800000000003</v>
+      </c>
+      <c r="M6">
+        <f>M$5*L6</f>
+        <v>98370.8</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N22" si="0">M6-M7</f>
+        <v>149.99999999998545</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O22" si="1">N6/M6</f>
+        <v>1.5248427378854847E-3</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6:P22" si="2">1-O6</f>
+        <v>0.99847515726211455</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ref="Q6:Q22" si="3">5*(M6-N6)+2.5*N6</f>
+        <v>491479.00000000006</v>
+      </c>
+      <c r="R6">
+        <f>SUM(Q6:Q$22)</f>
+        <v>6844812</v>
+      </c>
+      <c r="S6">
+        <f t="shared" ref="S6:S22" si="4">R6/M6</f>
+        <v>69.581745802616226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>10</v>
+      </c>
+      <c r="B7" s="17">
+        <v>58141</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0.58140000000000003</v>
+      </c>
+      <c r="D7" s="17">
+        <v>-0.1643</v>
+      </c>
+      <c r="E7" s="17">
+        <v>98220.800000000017</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="G7" s="17">
+        <v>-0.86339999999999995</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="13">
+        <f t="shared" ref="I7:I22" si="5">E7/$E$5</f>
+        <v>0.98220800000000019</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:J22" si="6">0.5*LN((1-I7)/I7)</f>
+        <v>-2.0055270902422344</v>
+      </c>
+      <c r="K7">
+        <f>M$1+M$2*J7</f>
+        <v>-2.0055270902422344</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L7:L22" si="7">1/(EXP(2*K7)+1)</f>
+        <v>0.98220800000000019</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ref="M7:M22" si="8">M$5*L7</f>
+        <v>98220.800000000017</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>150.40000000002328</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>1.5312438913145001E-3</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="2"/>
+        <v>0.99846875610868546</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="3"/>
+        <v>490728.00000000006</v>
+      </c>
+      <c r="R7">
+        <f>SUM(Q7:Q$22)</f>
+        <v>6353333</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="4"/>
+        <v>64.68419112855932</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>15</v>
+      </c>
+      <c r="B8" s="17">
+        <v>55864</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0.55859999999999999</v>
+      </c>
+      <c r="D8" s="17">
+        <v>-0.1178</v>
+      </c>
+      <c r="E8" s="17">
+        <v>98070.399999999994</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0.8448</v>
+      </c>
+      <c r="G8" s="17">
+        <v>-0.84719999999999995</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="13">
+        <f t="shared" si="5"/>
+        <v>0.98070399999999991</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="6"/>
+        <v>-1.9641864302822296</v>
+      </c>
+      <c r="K8">
+        <f>M$1+M$2*J8</f>
+        <v>-1.9641864302822296</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="7"/>
+        <v>0.98070399999999991</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="8"/>
+        <v>98070.399999999994</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>479.59999999997672</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>4.8903644728682328E-3</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="2"/>
+        <v>0.99510963552713172</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="3"/>
+        <v>489153.00000000006</v>
+      </c>
+      <c r="R8">
+        <f>SUM(Q8:Q$22)</f>
+        <v>5862605</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="4"/>
+        <v>59.779556318726144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>20</v>
+      </c>
+      <c r="B9" s="17">
+        <v>53002</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0.53</v>
+      </c>
+      <c r="D9" s="17">
+        <v>-6.0100000000000001E-2</v>
+      </c>
+      <c r="E9" s="17">
+        <v>97590.800000000017</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="G9" s="17">
+        <v>-0.82540000000000002</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="13">
+        <f t="shared" si="5"/>
+        <v>0.97590800000000022</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="6"/>
+        <v>-1.8507442422467879</v>
+      </c>
+      <c r="K9">
+        <f>M$1+M$2*J9</f>
+        <v>-1.8507442422467879</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="7"/>
+        <v>0.97590800000000022</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="8"/>
+        <v>97590.800000000017</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>644.80000000004657</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>6.6071801850179157E-3</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>0.99339281981498206</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="3"/>
+        <v>486342</v>
+      </c>
+      <c r="R9">
+        <f>SUM(Q9:Q$22)</f>
+        <v>5373452</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="4"/>
+        <v>55.061050836759193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>25</v>
+      </c>
+      <c r="B10" s="17">
+        <v>49614</v>
+      </c>
+      <c r="C10" s="17">
+        <v>0.49609999999999999</v>
+      </c>
+      <c r="D10" s="17">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="E10" s="17">
+        <v>96945.999999999971</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="G10" s="17">
+        <v>-0.80010000000000003</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="13">
+        <f t="shared" si="5"/>
+        <v>0.96945999999999966</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="6"/>
+        <v>-1.7288509578302247</v>
+      </c>
+      <c r="K10">
+        <f>M$1+M$2*J10</f>
+        <v>-1.7288509578302247</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="7"/>
+        <v>0.96945999999999966</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="8"/>
+        <v>96945.999999999971</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>637.59999999994761</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>6.5768572194824732E-3</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="2"/>
+        <v>0.99342314278051758</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="3"/>
+        <v>483136</v>
+      </c>
+      <c r="R10">
+        <f>SUM(Q10:Q$22)</f>
+        <v>4887110</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="4"/>
+        <v>50.410640975388375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>30</v>
+      </c>
+      <c r="B11" s="17">
+        <v>46072</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0.4607</v>
+      </c>
+      <c r="D11" s="17">
+        <v>7.8700000000000006E-2</v>
+      </c>
+      <c r="E11" s="17">
+        <v>96308.400000000023</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0.82420000000000004</v>
+      </c>
+      <c r="G11" s="17">
+        <v>-0.77270000000000005</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="13">
+        <f t="shared" si="5"/>
+        <v>0.96308400000000027</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="6"/>
+        <v>-1.6307477870025218</v>
+      </c>
+      <c r="K11">
+        <f>M$1+M$2*J11</f>
+        <v>-1.6307477870025218</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="7"/>
+        <v>0.96308400000000027</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="8"/>
+        <v>96308.400000000023</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>668.80000000006112</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>6.9443579168593905E-3</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>0.99305564208314057</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="3"/>
+        <v>479870</v>
+      </c>
+      <c r="R11">
+        <f>SUM(Q11:Q$22)</f>
+        <v>4403974</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="4"/>
+        <v>45.727828517554016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>35</v>
+      </c>
+      <c r="B12" s="17">
+        <v>42361</v>
+      </c>
+      <c r="C12" s="17">
+        <v>0.42359999999999998</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0.154</v>
+      </c>
+      <c r="E12" s="17">
+        <v>95639.599999999977</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.81469999999999998</v>
+      </c>
+      <c r="G12" s="17">
+        <v>-0.74050000000000005</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="13">
+        <f t="shared" si="5"/>
+        <v>0.9563959999999998</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="6"/>
+        <v>-1.5440115819794129</v>
+      </c>
+      <c r="K12">
+        <f>M$1+M$2*J12</f>
+        <v>-1.5440115819794129</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="7"/>
+        <v>0.95639599999999969</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="8"/>
+        <v>95639.599999999962</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>872.7999999999447</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>9.1259269173014634E-3</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="2"/>
+        <v>0.99087407308269859</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="3"/>
+        <v>476016</v>
+      </c>
+      <c r="R12">
+        <f>SUM(Q12:Q$22)</f>
+        <v>3924104</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="4"/>
+        <v>41.030117231774305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>40</v>
+      </c>
+      <c r="B13" s="17">
+        <v>38624</v>
+      </c>
+      <c r="C13" s="17">
+        <v>0.38619999999999999</v>
+      </c>
+      <c r="D13" s="17">
+        <v>0.2316</v>
+      </c>
+      <c r="E13" s="17">
+        <v>94766.800000000017</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0.80289999999999995</v>
+      </c>
+      <c r="G13" s="17">
+        <v>-0.70240000000000002</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="13">
+        <f t="shared" si="5"/>
+        <v>0.94766800000000018</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="6"/>
+        <v>-1.4481980956488743</v>
+      </c>
+      <c r="K13">
+        <f>M$1+M$2*J13</f>
+        <v>-1.4481980956488743</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="7"/>
+        <v>0.94766800000000018</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="8"/>
+        <v>94766.800000000017</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>1323.2000000000407</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>1.3962695796418583E-2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="2"/>
+        <v>0.98603730420358138</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="3"/>
+        <v>470526</v>
+      </c>
+      <c r="R13">
+        <f>SUM(Q13:Q$22)</f>
+        <v>3448088</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="4"/>
+        <v>36.384978705622636</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>45</v>
+      </c>
+      <c r="B14" s="17">
+        <v>34968</v>
+      </c>
+      <c r="C14" s="17">
+        <v>0.34970000000000001</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0.31019999999999998</v>
+      </c>
+      <c r="E14" s="17">
+        <v>93443.599999999977</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0.78739999999999999</v>
+      </c>
+      <c r="G14" s="17">
+        <v>-0.65480000000000005</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="13">
+        <f t="shared" si="5"/>
+        <v>0.93443599999999982</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="6"/>
+        <v>-1.3284581869509726</v>
+      </c>
+      <c r="K14">
+        <f>M$1+M$2*J14</f>
+        <v>-1.3284581869509726</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="7"/>
+        <v>0.93443599999999982</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="8"/>
+        <v>93443.599999999977</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>2078.3999999999651</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>2.2242293747243957E-2</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="2"/>
+        <v>0.97775770625275604</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="3"/>
+        <v>462022</v>
+      </c>
+      <c r="R14">
+        <f>SUM(Q14:Q$22)</f>
+        <v>2977562</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="4"/>
+        <v>31.864804010119482</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>50</v>
+      </c>
+      <c r="B15" s="17">
+        <v>31396</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0.314</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0.39079999999999998</v>
+      </c>
+      <c r="E15" s="17">
+        <v>91365.200000000012</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0.7661</v>
+      </c>
+      <c r="G15" s="17">
+        <v>-0.59319999999999995</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="13">
+        <f t="shared" si="5"/>
+        <v>0.91365200000000013</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="6"/>
+        <v>-1.1795320560988163</v>
+      </c>
+      <c r="K15">
+        <f>M$1+M$2*J15</f>
+        <v>-1.1795320560988163</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="7"/>
+        <v>0.91365200000000013</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="8"/>
+        <v>91365.200000000012</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>3192.0000000000291</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>3.4936715510938833E-2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="2"/>
+        <v>0.9650632844890612</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="3"/>
+        <v>448845.99999999994</v>
+      </c>
+      <c r="R15">
+        <f>SUM(Q15:Q$22)</f>
+        <v>2515540</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="4"/>
+        <v>27.532802423679911</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>55</v>
+      </c>
+      <c r="B16" s="17">
+        <v>27280</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0.27279999999999999</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0.49020000000000002</v>
+      </c>
+      <c r="E16" s="17">
+        <v>88173.199999999983</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0.7329</v>
+      </c>
+      <c r="G16" s="17">
+        <v>-0.50480000000000003</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="13">
+        <f t="shared" si="5"/>
+        <v>0.88173199999999985</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="6"/>
+        <v>-1.0044674596486687</v>
+      </c>
+      <c r="K16">
+        <f>M$1+M$2*J16</f>
+        <v>-1.0044674596486687</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="7"/>
+        <v>0.88173199999999985</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="8"/>
+        <v>88173.199999999983</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>4656.7999999999447</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>5.2814233803468009E-2</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="2"/>
+        <v>0.94718576619653194</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="3"/>
+        <v>429224.00000000006</v>
+      </c>
+      <c r="R16">
+        <f>SUM(Q16:Q$22)</f>
+        <v>2066694</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="4"/>
+        <v>23.439026824477285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>60</v>
+      </c>
+      <c r="B17" s="17">
+        <v>22764</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0.2276</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0.6109</v>
+      </c>
+      <c r="E17" s="17">
+        <v>83516.400000000023</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0.68220000000000003</v>
+      </c>
+      <c r="G17" s="17">
+        <v>-0.38190000000000002</v>
+      </c>
+      <c r="H17" s="17"/>
+      <c r="I17" s="13">
+        <f t="shared" si="5"/>
+        <v>0.83516400000000024</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="6"/>
+        <v>-0.81133853626489583</v>
+      </c>
+      <c r="K17">
+        <f>M$1+M$2*J17</f>
+        <v>-0.81133853626489583</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="7"/>
+        <v>0.83516400000000035</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="8"/>
+        <v>83516.400000000038</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>6606.4000000000669</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>7.910302647144829E-2</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
+        <v>0.92089697352855171</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="3"/>
+        <v>401066.00000000006</v>
+      </c>
+      <c r="R17">
+        <f>SUM(Q17:Q$22)</f>
+        <v>1637469.9999999998</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="4"/>
+        <v>19.606568290778807</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>65</v>
+      </c>
+      <c r="B18" s="17">
+        <v>17384</v>
+      </c>
+      <c r="C18" s="17">
+        <v>0.17380000000000001</v>
+      </c>
+      <c r="D18" s="17">
+        <v>0.77929999999999999</v>
+      </c>
+      <c r="E18" s="17">
+        <v>76909.999999999971</v>
+      </c>
+      <c r="F18" s="17">
+        <v>0.60629999999999995</v>
+      </c>
+      <c r="G18" s="17">
+        <v>-0.21579999999999999</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="I18" s="13">
+        <f t="shared" si="5"/>
+        <v>0.76909999999999967</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="6"/>
+        <v>-0.60161814185127838</v>
+      </c>
+      <c r="K18">
+        <f>M$1+M$2*J18</f>
+        <v>-0.60161814185127838</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="7"/>
+        <v>0.76909999999999967</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="8"/>
+        <v>76909.999999999971</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>8920.7999999999302</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>0.11599011832011355</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="2"/>
+        <v>0.88400988167988648</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="3"/>
+        <v>362248.00000000006</v>
+      </c>
+      <c r="R18">
+        <f>SUM(Q18:Q$22)</f>
+        <v>1236403.9999999998</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="4"/>
+        <v>16.075984917435967</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>70</v>
+      </c>
+      <c r="B19" s="17">
+        <v>12025</v>
+      </c>
+      <c r="C19" s="17">
+        <v>0.1202</v>
+      </c>
+      <c r="D19" s="17">
+        <v>0.99509999999999998</v>
+      </c>
+      <c r="E19" s="17">
+        <v>67989.200000000041</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0.50380000000000003</v>
+      </c>
+      <c r="G19" s="17">
+        <v>-7.7000000000000002E-3</v>
+      </c>
+      <c r="H19" s="17"/>
+      <c r="I19" s="13">
+        <f t="shared" si="5"/>
+        <v>0.67989200000000038</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="6"/>
+        <v>-0.37663776158674578</v>
+      </c>
+      <c r="K19">
+        <f>M$1+M$2*J19</f>
+        <v>-0.37663776158674578</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="7"/>
+        <v>0.67989200000000038</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="8"/>
+        <v>67989.200000000041</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>11463.200000000084</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>0.16860324875127339</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="2"/>
+        <v>0.83139675124872658</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="3"/>
+        <v>311288</v>
+      </c>
+      <c r="R19">
+        <f>SUM(Q19:Q$22)</f>
+        <v>874155.99999999977</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="4"/>
+        <v>12.857277332282175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>75</v>
+      </c>
+      <c r="B20" s="17">
+        <v>6931</v>
+      </c>
+      <c r="C20" s="17">
+        <v>6.93E-2</v>
+      </c>
+      <c r="D20" s="17">
+        <v>1.2987</v>
+      </c>
+      <c r="E20" s="17">
+        <v>56525.999999999956</v>
+      </c>
+      <c r="F20" s="17">
+        <v>0.37619999999999998</v>
+      </c>
+      <c r="G20" s="17">
+        <v>0.25290000000000001</v>
+      </c>
+      <c r="H20" s="17"/>
+      <c r="I20" s="13">
+        <f t="shared" si="5"/>
+        <v>0.56525999999999954</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="6"/>
+        <v>-0.13126882552195515</v>
+      </c>
+      <c r="K20">
+        <f>M$1+M$2*J20</f>
+        <v>-0.13126882552195515</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="7"/>
+        <v>0.56525999999999954</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="8"/>
+        <v>56525.999999999956</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>13663.999999999913</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>0.24172946962459618</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="2"/>
+        <v>0.75827053037540382</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="3"/>
+        <v>248470</v>
+      </c>
+      <c r="R20">
+        <f>SUM(Q20:Q$22)</f>
+        <v>562867.99999999977</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="4"/>
+        <v>9.9576831900364464</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>80</v>
+      </c>
+      <c r="B21" s="17">
+        <v>3073</v>
+      </c>
+      <c r="C21" s="17">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="D21" s="17">
+        <v>1.7256</v>
+      </c>
+      <c r="E21" s="17">
+        <v>42862.000000000044</v>
+      </c>
+      <c r="F21" s="17">
+        <v>0.23960000000000001</v>
+      </c>
+      <c r="G21" s="17">
+        <v>0.57740000000000002</v>
+      </c>
+      <c r="H21" s="17"/>
+      <c r="I21" s="13">
+        <f t="shared" si="5"/>
+        <v>0.42862000000000045</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="6"/>
+        <v>0.14374187096373908</v>
+      </c>
+      <c r="K21">
+        <f>M$1+M$2*J21</f>
+        <v>0.14374187096373908</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="7"/>
+        <v>0.42862000000000045</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="8"/>
+        <v>42862.000000000044</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>15229.600000000093</v>
+      </c>
+      <c r="O21">
+        <f>N21/M21</f>
+        <v>0.35531706406607433</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="2"/>
+        <v>0.64468293593392567</v>
+      </c>
+      <c r="Q21">
+        <f>5*(M21-N21)+2.5*N21</f>
+        <v>176236</v>
+      </c>
+      <c r="R21">
+        <f>SUM(Q21:Q$22)</f>
+        <v>314397.99999999977</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="4"/>
+        <v>7.3351220195044435</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <v>85</v>
+      </c>
+      <c r="B22" s="17">
+        <v>937</v>
+      </c>
+      <c r="C22" s="17">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="D22" s="17">
+        <v>2.3302</v>
+      </c>
+      <c r="E22" s="17">
+        <v>27632.399999999951</v>
+      </c>
+      <c r="F22" s="17">
+        <v>0.1235</v>
+      </c>
+      <c r="G22" s="17">
+        <v>0.97989999999999999</v>
+      </c>
+      <c r="H22" s="17"/>
+      <c r="I22" s="13">
+        <f>E22/$E$5</f>
+        <v>0.27632399999999951</v>
+      </c>
+      <c r="J22">
+        <f>0.5*LN((1-I22)/I22)</f>
+        <v>0.48138484407294552</v>
+      </c>
+      <c r="K22">
+        <f>M$1+M$2*J22</f>
+        <v>0.48138484407294552</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="7"/>
+        <v>0.27632399999999951</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="8"/>
+        <v>27632.399999999951</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>27632.399999999951</v>
+      </c>
+      <c r="O22">
+        <f>N22/M22</f>
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <f>5*(M22-N22)+5*N22</f>
+        <v>138161.99999999977</v>
+      </c>
+      <c r="R22">
+        <f>SUM(Q22:Q$22)</f>
+        <v>138161.99999999977</v>
+      </c>
+      <c r="S22">
+        <f>R22/M22</f>
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="V22">
+        <v>172927</v>
+      </c>
+      <c r="W22">
+        <f>V22-Q22</f>
+        <v>34765.000000000233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="12"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="12"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="15"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data-raw/iussp.xlsx
+++ b/data-raw/iussp.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabel\Github\agesched\data-raw\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Romaniuk" sheetId="1" r:id="rId1"/>
@@ -19,12 +14,12 @@
     <sheet name="Booth" sheetId="7" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="112">
   <si>
     <t>x</t>
   </si>
@@ -539,12 +534,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -572,12 +561,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1099,11 +1094,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213323688"/>
-        <c:axId val="213324080"/>
+        <c:axId val="287256576"/>
+        <c:axId val="287258496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213323688"/>
+        <c:axId val="287256576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -1115,12 +1110,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213324080"/>
+        <c:crossAx val="287258496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213324080"/>
+        <c:axId val="287258496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1132,7 +1127,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213323688"/>
+        <c:crossAx val="287256576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5.0000000000000017E-2"/>
@@ -1905,11 +1900,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213324864"/>
-        <c:axId val="213325256"/>
+        <c:axId val="285294592"/>
+        <c:axId val="285296128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213324864"/>
+        <c:axId val="285294592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -1921,12 +1916,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213325256"/>
+        <c:crossAx val="285296128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213325256"/>
+        <c:axId val="285296128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1937,7 +1932,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213324864"/>
+        <c:crossAx val="285294592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2672,11 +2667,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213326432"/>
-        <c:axId val="213326824"/>
+        <c:axId val="285624576"/>
+        <c:axId val="285933568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213326432"/>
+        <c:axId val="285624576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2686,12 +2681,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213326824"/>
+        <c:crossAx val="285933568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213326824"/>
+        <c:axId val="285933568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2702,7 +2697,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213326432"/>
+        <c:crossAx val="285624576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3605,12 +3600,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="215314992"/>
-        <c:axId val="215315384"/>
+        <c:axId val="286110080"/>
+        <c:axId val="286111616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="215314992"/>
+        <c:axId val="286110080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3653,7 +3649,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215315384"/>
+        <c:crossAx val="286111616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3661,7 +3657,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215315384"/>
+        <c:axId val="286111616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3712,7 +3708,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215314992"/>
+        <c:crossAx val="286110080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4422,11 +4418,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213328392"/>
-        <c:axId val="213328000"/>
+        <c:axId val="285947008"/>
+        <c:axId val="285948544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213328392"/>
+        <c:axId val="285947008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -4438,12 +4434,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213328000"/>
+        <c:crossAx val="285948544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213328000"/>
+        <c:axId val="285948544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.3000000000000001"/>
@@ -4455,14 +4451,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213328392"/>
+        <c:crossAx val="285947008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="0"/>
@@ -5157,7 +5152,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5165,12 +5160,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5204,7 +5193,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5212,12 +5201,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5288,7 +5271,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5296,12 +5279,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5335,7 +5312,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5343,12 +5320,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5382,7 +5353,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5390,12 +5361,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5429,7 +5394,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5437,12 +5402,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5543,7 +5502,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5551,12 +5510,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5590,7 +5543,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5598,12 +5551,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5637,7 +5584,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5645,12 +5592,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5704,7 +5645,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5739,7 +5680,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9134,14 +9075,14 @@
         <v>32</v>
       </c>
       <c r="U5" s="6"/>
-      <c r="V5" s="10" t="s">
+      <c r="V5" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10" t="s">
+      <c r="W5" s="19"/>
+      <c r="X5" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="Y5" s="10"/>
+      <c r="Y5" s="19"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
@@ -10321,15 +10262,15 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AH17" s="9" t="s">
+      <c r="AH17" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="AI17" s="9"/>
-      <c r="AJ17" s="9"/>
-      <c r="AK17" s="9"/>
-      <c r="AL17" s="9"/>
-      <c r="AM17" s="9"/>
-      <c r="AN17" s="9"/>
+      <c r="AI17" s="18"/>
+      <c r="AJ17" s="18"/>
+      <c r="AK17" s="18"/>
+      <c r="AL17" s="18"/>
+      <c r="AM17" s="18"/>
+      <c r="AN17" s="18"/>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -15041,26 +14982,26 @@
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
       <c r="L1" t="s">
         <v>3</v>
       </c>
@@ -15068,28 +15009,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19">
+    <row r="2" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20">
         <v>100000</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="20">
         <v>100000</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="11"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="9"/>
       <c r="L2" t="s">
         <v>23</v>
       </c>
@@ -15097,31 +15038,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="18" t="s">
+    <row r="3" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="18" t="s">
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="14"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="12"/>
       <c r="M4" t="s">
         <v>108</v>
       </c>
@@ -15143,23 +15084,26 @@
       <c r="S4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="U4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
         <v>0</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="16">
         <v>100000</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16">
         <v>100000</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="13"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="11"/>
       <c r="M5">
         <v>100000</v>
       </c>
@@ -15187,31 +15131,35 @@
         <f>R5/M5</f>
         <v>73.407390000000007</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="U5">
+        <f>Q5/5+N5/2</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="15">
         <v>61196</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="15">
         <v>0.61199999999999999</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="15">
         <v>-0.2278</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="15">
         <v>98370.799999999988</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="15">
         <v>0.85880000000000001</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="15">
         <v>-0.90269999999999995</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="13">
+      <c r="H6" s="15"/>
+      <c r="I6" s="11">
         <f>E6/$E$5</f>
         <v>0.98370799999999992</v>
       </c>
@@ -15220,7 +15168,7 @@
         <v>-2.050327457630106</v>
       </c>
       <c r="K6">
-        <f>M$1+M$2*J6</f>
+        <f t="shared" ref="K6:K22" si="0">M$1+M$2*J6</f>
         <v>-2.050327457630106</v>
       </c>
       <c r="L6">
@@ -15232,19 +15180,19 @@
         <v>98370.8</v>
       </c>
       <c r="N6">
-        <f t="shared" ref="N6:N22" si="0">M6-M7</f>
+        <f t="shared" ref="N6:N22" si="1">M6-M7</f>
         <v>149.99999999998545</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6:O22" si="1">N6/M6</f>
+        <f t="shared" ref="O6:O20" si="2">N6/M6</f>
         <v>1.5248427378854847E-3</v>
       </c>
       <c r="P6">
-        <f t="shared" ref="P6:P22" si="2">1-O6</f>
+        <f t="shared" ref="P6:P22" si="3">1-O6</f>
         <v>0.99847515726211455</v>
       </c>
       <c r="Q6">
-        <f t="shared" ref="Q6:Q22" si="3">5*(M6-N6)+2.5*N6</f>
+        <f t="shared" ref="Q6:Q20" si="4">5*(M6-N6)+2.5*N6</f>
         <v>491479.00000000006</v>
       </c>
       <c r="R6">
@@ -15252,67 +15200,71 @@
         <v>6844812</v>
       </c>
       <c r="S6">
-        <f t="shared" ref="S6:S22" si="4">R6/M6</f>
+        <f t="shared" ref="S6:S21" si="5">R6/M6</f>
         <v>69.581745802616226</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="U6">
+        <f t="shared" ref="U6:U22" si="6">Q6/5+N6/2</f>
+        <v>98370.800000000017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
         <v>10</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="15">
         <v>58141</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="15">
         <v>0.58140000000000003</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="15">
         <v>-0.1643</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="15">
         <v>98220.800000000017</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="15">
         <v>0.84899999999999998</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="15">
         <v>-0.86339999999999995</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="13">
-        <f t="shared" ref="I7:I22" si="5">E7/$E$5</f>
+      <c r="H7" s="15"/>
+      <c r="I7" s="11">
+        <f t="shared" ref="I7:I21" si="7">E7/$E$5</f>
         <v>0.98220800000000019</v>
       </c>
       <c r="J7">
-        <f t="shared" ref="J7:J22" si="6">0.5*LN((1-I7)/I7)</f>
+        <f t="shared" ref="J7:J21" si="8">0.5*LN((1-I7)/I7)</f>
         <v>-2.0055270902422344</v>
       </c>
       <c r="K7">
-        <f>M$1+M$2*J7</f>
+        <f t="shared" si="0"/>
         <v>-2.0055270902422344</v>
       </c>
       <c r="L7">
-        <f t="shared" ref="L7:L22" si="7">1/(EXP(2*K7)+1)</f>
+        <f t="shared" ref="L7:L22" si="9">1/(EXP(2*K7)+1)</f>
         <v>0.98220800000000019</v>
       </c>
       <c r="M7">
-        <f t="shared" ref="M7:M22" si="8">M$5*L7</f>
+        <f t="shared" ref="M7:M22" si="10">M$5*L7</f>
         <v>98220.800000000017</v>
       </c>
       <c r="N7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>150.40000000002328</v>
       </c>
       <c r="O7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5312438913145001E-3</v>
       </c>
       <c r="P7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99846875610868546</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>490728.00000000006</v>
       </c>
       <c r="R7">
@@ -15320,67 +15272,71 @@
         <v>6353333</v>
       </c>
       <c r="S7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64.68419112855932</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="U7">
+        <f t="shared" si="6"/>
+        <v>98220.800000000017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
         <v>15</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="15">
         <v>55864</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="15">
         <v>0.55859999999999999</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="15">
         <v>-0.1178</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="15">
         <v>98070.399999999994</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="15">
         <v>0.8448</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="15">
         <v>-0.84719999999999995</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="13">
-        <f t="shared" si="5"/>
-        <v>0.98070399999999991</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="6"/>
-        <v>-1.9641864302822296</v>
-      </c>
-      <c r="K8">
-        <f>M$1+M$2*J8</f>
-        <v>-1.9641864302822296</v>
-      </c>
-      <c r="L8">
+      <c r="H8" s="15"/>
+      <c r="I8" s="11">
         <f t="shared" si="7"/>
         <v>0.98070399999999991</v>
       </c>
+      <c r="J8">
+        <f t="shared" si="8"/>
+        <v>-1.9641864302822296</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>-1.9641864302822296</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="9"/>
+        <v>0.98070399999999991</v>
+      </c>
       <c r="M8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>98070.399999999994</v>
       </c>
       <c r="N8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>479.59999999997672</v>
       </c>
       <c r="O8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.8903644728682328E-3</v>
       </c>
       <c r="P8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99510963552713172</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>489153.00000000006</v>
       </c>
       <c r="R8">
@@ -15388,67 +15344,71 @@
         <v>5862605</v>
       </c>
       <c r="S8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59.779556318726144</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="U8">
+        <f t="shared" si="6"/>
+        <v>98070.399999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
         <v>20</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="15">
         <v>53002</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="15">
         <v>0.53</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="15">
         <v>-6.0100000000000001E-2</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="15">
         <v>97590.800000000017</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="15">
         <v>0.83899999999999997</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="15">
         <v>-0.82540000000000002</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="13">
-        <f t="shared" si="5"/>
-        <v>0.97590800000000022</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="6"/>
-        <v>-1.8507442422467879</v>
-      </c>
-      <c r="K9">
-        <f>M$1+M$2*J9</f>
-        <v>-1.8507442422467879</v>
-      </c>
-      <c r="L9">
+      <c r="H9" s="15"/>
+      <c r="I9" s="11">
         <f t="shared" si="7"/>
         <v>0.97590800000000022</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="8"/>
+        <v>-1.8507442422467879</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>-1.8507442422467879</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="9"/>
+        <v>0.97590800000000022</v>
+      </c>
       <c r="M9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>97590.800000000017</v>
       </c>
       <c r="N9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>644.80000000004657</v>
       </c>
       <c r="O9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.6071801850179157E-3</v>
       </c>
       <c r="P9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99339281981498206</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>486342</v>
       </c>
       <c r="R9">
@@ -15456,67 +15416,71 @@
         <v>5373452</v>
       </c>
       <c r="S9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.061050836759193</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="U9">
+        <f t="shared" si="6"/>
+        <v>97590.800000000017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
         <v>25</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="15">
         <v>49614</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="15">
         <v>0.49609999999999999</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="15">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="15">
         <v>96945.999999999971</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="15">
         <v>0.83199999999999996</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="15">
         <v>-0.80010000000000003</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="13">
-        <f t="shared" si="5"/>
-        <v>0.96945999999999966</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="6"/>
-        <v>-1.7288509578302247</v>
-      </c>
-      <c r="K10">
-        <f>M$1+M$2*J10</f>
-        <v>-1.7288509578302247</v>
-      </c>
-      <c r="L10">
+      <c r="H10" s="15"/>
+      <c r="I10" s="11">
         <f t="shared" si="7"/>
         <v>0.96945999999999966</v>
       </c>
+      <c r="J10">
+        <f t="shared" si="8"/>
+        <v>-1.7288509578302247</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>-1.7288509578302247</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="9"/>
+        <v>0.96945999999999966</v>
+      </c>
       <c r="M10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>96945.999999999971</v>
       </c>
       <c r="N10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>637.59999999994761</v>
       </c>
       <c r="O10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.5768572194824732E-3</v>
       </c>
       <c r="P10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99342314278051758</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>483136</v>
       </c>
       <c r="R10">
@@ -15524,67 +15488,71 @@
         <v>4887110</v>
       </c>
       <c r="S10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50.410640975388375</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="U10">
+        <f t="shared" si="6"/>
+        <v>96945.999999999971</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
         <v>30</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="15">
         <v>46072</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="15">
         <v>0.4607</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="15">
         <v>7.8700000000000006E-2</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="15">
         <v>96308.400000000023</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="15">
         <v>0.82420000000000004</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="15">
         <v>-0.77270000000000005</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="13">
-        <f t="shared" si="5"/>
-        <v>0.96308400000000027</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="6"/>
-        <v>-1.6307477870025218</v>
-      </c>
-      <c r="K11">
-        <f>M$1+M$2*J11</f>
-        <v>-1.6307477870025218</v>
-      </c>
-      <c r="L11">
+      <c r="H11" s="15"/>
+      <c r="I11" s="11">
         <f t="shared" si="7"/>
         <v>0.96308400000000027</v>
       </c>
+      <c r="J11">
+        <f t="shared" si="8"/>
+        <v>-1.6307477870025218</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>-1.6307477870025218</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="9"/>
+        <v>0.96308400000000027</v>
+      </c>
       <c r="M11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>96308.400000000023</v>
       </c>
       <c r="N11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>668.80000000006112</v>
       </c>
       <c r="O11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.9443579168593905E-3</v>
       </c>
       <c r="P11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99305564208314057</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>479870</v>
       </c>
       <c r="R11">
@@ -15592,67 +15560,71 @@
         <v>4403974</v>
       </c>
       <c r="S11">
+        <f t="shared" si="5"/>
+        <v>45.727828517554016</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="6"/>
+        <v>96308.400000000023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>35</v>
+      </c>
+      <c r="B12" s="15">
+        <v>42361</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0.42359999999999998</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0.154</v>
+      </c>
+      <c r="E12" s="15">
+        <v>95639.599999999977</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0.81469999999999998</v>
+      </c>
+      <c r="G12" s="15">
+        <v>-0.74050000000000005</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="11">
+        <f t="shared" si="7"/>
+        <v>0.9563959999999998</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="8"/>
+        <v>-1.5440115819794129</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>-1.5440115819794129</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="9"/>
+        <v>0.95639599999999969</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="10"/>
+        <v>95639.599999999962</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>872.7999999999447</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>9.1259269173014634E-3</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="3"/>
+        <v>0.99087407308269859</v>
+      </c>
+      <c r="Q12">
         <f t="shared" si="4"/>
-        <v>45.727828517554016</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
-        <v>35</v>
-      </c>
-      <c r="B12" s="17">
-        <v>42361</v>
-      </c>
-      <c r="C12" s="17">
-        <v>0.42359999999999998</v>
-      </c>
-      <c r="D12" s="17">
-        <v>0.154</v>
-      </c>
-      <c r="E12" s="17">
-        <v>95639.599999999977</v>
-      </c>
-      <c r="F12" s="17">
-        <v>0.81469999999999998</v>
-      </c>
-      <c r="G12" s="17">
-        <v>-0.74050000000000005</v>
-      </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="13">
-        <f t="shared" si="5"/>
-        <v>0.9563959999999998</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="6"/>
-        <v>-1.5440115819794129</v>
-      </c>
-      <c r="K12">
-        <f>M$1+M$2*J12</f>
-        <v>-1.5440115819794129</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="7"/>
-        <v>0.95639599999999969</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="8"/>
-        <v>95639.599999999962</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="0"/>
-        <v>872.7999999999447</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="1"/>
-        <v>9.1259269173014634E-3</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="2"/>
-        <v>0.99087407308269859</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="3"/>
         <v>476016</v>
       </c>
       <c r="R12">
@@ -15660,67 +15632,71 @@
         <v>3924104</v>
       </c>
       <c r="S12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41.030117231774305</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="U12">
+        <f t="shared" si="6"/>
+        <v>95639.599999999977</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
         <v>40</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="15">
         <v>38624</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="15">
         <v>0.38619999999999999</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="15">
         <v>0.2316</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="15">
         <v>94766.800000000017</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="15">
         <v>0.80289999999999995</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="15">
         <v>-0.70240000000000002</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="13">
-        <f t="shared" si="5"/>
-        <v>0.94766800000000018</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="6"/>
-        <v>-1.4481980956488743</v>
-      </c>
-      <c r="K13">
-        <f>M$1+M$2*J13</f>
-        <v>-1.4481980956488743</v>
-      </c>
-      <c r="L13">
+      <c r="H13" s="15"/>
+      <c r="I13" s="11">
         <f t="shared" si="7"/>
         <v>0.94766800000000018</v>
       </c>
+      <c r="J13">
+        <f t="shared" si="8"/>
+        <v>-1.4481980956488743</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>-1.4481980956488743</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="9"/>
+        <v>0.94766800000000018</v>
+      </c>
       <c r="M13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>94766.800000000017</v>
       </c>
       <c r="N13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1323.2000000000407</v>
       </c>
       <c r="O13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3962695796418583E-2</v>
       </c>
       <c r="P13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.98603730420358138</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>470526</v>
       </c>
       <c r="R13">
@@ -15728,67 +15704,71 @@
         <v>3448088</v>
       </c>
       <c r="S13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36.384978705622636</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="U13">
+        <f t="shared" si="6"/>
+        <v>94766.800000000017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
         <v>45</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="15">
         <v>34968</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="15">
         <v>0.34970000000000001</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="15">
         <v>0.31019999999999998</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="15">
         <v>93443.599999999977</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="15">
         <v>0.78739999999999999</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="15">
         <v>-0.65480000000000005</v>
       </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="13">
-        <f t="shared" si="5"/>
-        <v>0.93443599999999982</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="6"/>
-        <v>-1.3284581869509726</v>
-      </c>
-      <c r="K14">
-        <f>M$1+M$2*J14</f>
-        <v>-1.3284581869509726</v>
-      </c>
-      <c r="L14">
+      <c r="H14" s="15"/>
+      <c r="I14" s="11">
         <f t="shared" si="7"/>
         <v>0.93443599999999982</v>
       </c>
+      <c r="J14">
+        <f t="shared" si="8"/>
+        <v>-1.3284581869509726</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>-1.3284581869509726</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="9"/>
+        <v>0.93443599999999982</v>
+      </c>
       <c r="M14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>93443.599999999977</v>
       </c>
       <c r="N14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2078.3999999999651</v>
       </c>
       <c r="O14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2242293747243957E-2</v>
       </c>
       <c r="P14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.97775770625275604</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>462022</v>
       </c>
       <c r="R14">
@@ -15796,67 +15776,71 @@
         <v>2977562</v>
       </c>
       <c r="S14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31.864804010119482</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
+      <c r="U14">
+        <f t="shared" si="6"/>
+        <v>93443.599999999977</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
         <v>50</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="15">
         <v>31396</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="15">
         <v>0.314</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="15">
         <v>0.39079999999999998</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="15">
         <v>91365.200000000012</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="15">
         <v>0.7661</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="15">
         <v>-0.59319999999999995</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="13">
-        <f t="shared" si="5"/>
-        <v>0.91365200000000013</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="6"/>
-        <v>-1.1795320560988163</v>
-      </c>
-      <c r="K15">
-        <f>M$1+M$2*J15</f>
-        <v>-1.1795320560988163</v>
-      </c>
-      <c r="L15">
+      <c r="H15" s="15"/>
+      <c r="I15" s="11">
         <f t="shared" si="7"/>
         <v>0.91365200000000013</v>
       </c>
+      <c r="J15">
+        <f t="shared" si="8"/>
+        <v>-1.1795320560988163</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>-1.1795320560988163</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="9"/>
+        <v>0.91365200000000013</v>
+      </c>
       <c r="M15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>91365.200000000012</v>
       </c>
       <c r="N15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3192.0000000000291</v>
       </c>
       <c r="O15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4936715510938833E-2</v>
       </c>
       <c r="P15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9650632844890612</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>448845.99999999994</v>
       </c>
       <c r="R15">
@@ -15864,67 +15848,71 @@
         <v>2515540</v>
       </c>
       <c r="S15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27.532802423679911</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="U15">
+        <f t="shared" si="6"/>
+        <v>91365.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
         <v>55</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="15">
         <v>27280</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="15">
         <v>0.27279999999999999</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="15">
         <v>0.49020000000000002</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="15">
         <v>88173.199999999983</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="15">
         <v>0.7329</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="15">
         <v>-0.50480000000000003</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="13">
-        <f t="shared" si="5"/>
-        <v>0.88173199999999985</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="6"/>
-        <v>-1.0044674596486687</v>
-      </c>
-      <c r="K16">
-        <f>M$1+M$2*J16</f>
-        <v>-1.0044674596486687</v>
-      </c>
-      <c r="L16">
+      <c r="H16" s="15"/>
+      <c r="I16" s="11">
         <f t="shared" si="7"/>
         <v>0.88173199999999985</v>
       </c>
+      <c r="J16">
+        <f t="shared" si="8"/>
+        <v>-1.0044674596486687</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>-1.0044674596486687</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="9"/>
+        <v>0.88173199999999985</v>
+      </c>
       <c r="M16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>88173.199999999983</v>
       </c>
       <c r="N16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4656.7999999999447</v>
       </c>
       <c r="O16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.2814233803468009E-2</v>
       </c>
       <c r="P16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.94718576619653194</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>429224.00000000006</v>
       </c>
       <c r="R16">
@@ -15932,67 +15920,71 @@
         <v>2066694</v>
       </c>
       <c r="S16">
+        <f t="shared" si="5"/>
+        <v>23.439026824477285</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="6"/>
+        <v>88173.199999999983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>60</v>
+      </c>
+      <c r="B17" s="15">
+        <v>22764</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0.2276</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0.6109</v>
+      </c>
+      <c r="E17" s="15">
+        <v>83516.400000000023</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0.68220000000000003</v>
+      </c>
+      <c r="G17" s="15">
+        <v>-0.38190000000000002</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="11">
+        <f t="shared" si="7"/>
+        <v>0.83516400000000024</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="8"/>
+        <v>-0.81133853626489583</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>-0.81133853626489583</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="9"/>
+        <v>0.83516400000000035</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="10"/>
+        <v>83516.400000000038</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>6606.4000000000669</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>7.910302647144829E-2</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="3"/>
+        <v>0.92089697352855171</v>
+      </c>
+      <c r="Q17">
         <f t="shared" si="4"/>
-        <v>23.439026824477285</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
-        <v>60</v>
-      </c>
-      <c r="B17" s="17">
-        <v>22764</v>
-      </c>
-      <c r="C17" s="17">
-        <v>0.2276</v>
-      </c>
-      <c r="D17" s="17">
-        <v>0.6109</v>
-      </c>
-      <c r="E17" s="17">
-        <v>83516.400000000023</v>
-      </c>
-      <c r="F17" s="17">
-        <v>0.68220000000000003</v>
-      </c>
-      <c r="G17" s="17">
-        <v>-0.38190000000000002</v>
-      </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="13">
-        <f t="shared" si="5"/>
-        <v>0.83516400000000024</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="6"/>
-        <v>-0.81133853626489583</v>
-      </c>
-      <c r="K17">
-        <f>M$1+M$2*J17</f>
-        <v>-0.81133853626489583</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="7"/>
-        <v>0.83516400000000035</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="8"/>
-        <v>83516.400000000038</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="0"/>
-        <v>6606.4000000000669</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="1"/>
-        <v>7.910302647144829E-2</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="2"/>
-        <v>0.92089697352855171</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="3"/>
         <v>401066.00000000006</v>
       </c>
       <c r="R17">
@@ -16000,67 +15992,71 @@
         <v>1637469.9999999998</v>
       </c>
       <c r="S17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19.606568290778807</v>
       </c>
+      <c r="U17">
+        <f t="shared" si="6"/>
+        <v>83516.400000000052</v>
+      </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+      <c r="A18" s="15">
         <v>65</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="15">
         <v>17384</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="15">
         <v>0.17380000000000001</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="15">
         <v>0.77929999999999999</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="15">
         <v>76909.999999999971</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="15">
         <v>0.60629999999999995</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="15">
         <v>-0.21579999999999999</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="13">
-        <f t="shared" si="5"/>
-        <v>0.76909999999999967</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="6"/>
-        <v>-0.60161814185127838</v>
-      </c>
-      <c r="K18">
-        <f>M$1+M$2*J18</f>
-        <v>-0.60161814185127838</v>
-      </c>
-      <c r="L18">
+      <c r="H18" s="15"/>
+      <c r="I18" s="11">
         <f t="shared" si="7"/>
         <v>0.76909999999999967</v>
       </c>
+      <c r="J18">
+        <f t="shared" si="8"/>
+        <v>-0.60161814185127838</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>-0.60161814185127838</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="9"/>
+        <v>0.76909999999999967</v>
+      </c>
       <c r="M18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>76909.999999999971</v>
       </c>
       <c r="N18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8920.7999999999302</v>
       </c>
       <c r="O18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11599011832011355</v>
       </c>
       <c r="P18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.88400988167988648</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>362248.00000000006</v>
       </c>
       <c r="R18">
@@ -16068,67 +16064,71 @@
         <v>1236403.9999999998</v>
       </c>
       <c r="S18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16.075984917435967</v>
       </c>
+      <c r="U18">
+        <f t="shared" si="6"/>
+        <v>76909.999999999971</v>
+      </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
+      <c r="A19" s="15">
         <v>70</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="15">
         <v>12025</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="15">
         <v>0.1202</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="15">
         <v>0.99509999999999998</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="15">
         <v>67989.200000000041</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="15">
         <v>0.50380000000000003</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="15">
         <v>-7.7000000000000002E-3</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="13">
-        <f t="shared" si="5"/>
-        <v>0.67989200000000038</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="6"/>
-        <v>-0.37663776158674578</v>
-      </c>
-      <c r="K19">
-        <f>M$1+M$2*J19</f>
-        <v>-0.37663776158674578</v>
-      </c>
-      <c r="L19">
+      <c r="H19" s="15"/>
+      <c r="I19" s="11">
         <f t="shared" si="7"/>
         <v>0.67989200000000038</v>
       </c>
+      <c r="J19">
+        <f t="shared" si="8"/>
+        <v>-0.37663776158674578</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>-0.37663776158674578</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="9"/>
+        <v>0.67989200000000038</v>
+      </c>
       <c r="M19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>67989.200000000041</v>
       </c>
       <c r="N19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11463.200000000084</v>
       </c>
       <c r="O19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16860324875127339</v>
       </c>
       <c r="P19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.83139675124872658</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>311288</v>
       </c>
       <c r="R19">
@@ -16136,67 +16136,71 @@
         <v>874155.99999999977</v>
       </c>
       <c r="S19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.857277332282175</v>
       </c>
+      <c r="U19">
+        <f t="shared" si="6"/>
+        <v>67989.200000000041</v>
+      </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+      <c r="A20" s="15">
         <v>75</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="15">
         <v>6931</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="15">
         <v>6.93E-2</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="15">
         <v>1.2987</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="15">
         <v>56525.999999999956</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="15">
         <v>0.37619999999999998</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="15">
         <v>0.25290000000000001</v>
       </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="13">
-        <f t="shared" si="5"/>
-        <v>0.56525999999999954</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="6"/>
-        <v>-0.13126882552195515</v>
-      </c>
-      <c r="K20">
-        <f>M$1+M$2*J20</f>
-        <v>-0.13126882552195515</v>
-      </c>
-      <c r="L20">
+      <c r="H20" s="15"/>
+      <c r="I20" s="11">
         <f t="shared" si="7"/>
         <v>0.56525999999999954</v>
       </c>
+      <c r="J20">
+        <f t="shared" si="8"/>
+        <v>-0.13126882552195515</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>-0.13126882552195515</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="9"/>
+        <v>0.56525999999999954</v>
+      </c>
       <c r="M20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>56525.999999999956</v>
       </c>
       <c r="N20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13663.999999999913</v>
       </c>
       <c r="O20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.24172946962459618</v>
       </c>
       <c r="P20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.75827053037540382</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>248470</v>
       </c>
       <c r="R20">
@@ -16204,55 +16208,59 @@
         <v>562867.99999999977</v>
       </c>
       <c r="S20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.9576831900364464</v>
       </c>
+      <c r="U20">
+        <f t="shared" si="6"/>
+        <v>56525.999999999956</v>
+      </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
+      <c r="A21" s="15">
         <v>80</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="15">
         <v>3073</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="15">
         <v>3.0700000000000002E-2</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="15">
         <v>1.7256</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="15">
         <v>42862.000000000044</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="15">
         <v>0.23960000000000001</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="15">
         <v>0.57740000000000002</v>
       </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="13">
-        <f t="shared" si="5"/>
-        <v>0.42862000000000045</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="6"/>
-        <v>0.14374187096373908</v>
-      </c>
-      <c r="K21">
-        <f>M$1+M$2*J21</f>
-        <v>0.14374187096373908</v>
-      </c>
-      <c r="L21">
+      <c r="H21" s="15"/>
+      <c r="I21" s="11">
         <f t="shared" si="7"/>
         <v>0.42862000000000045</v>
       </c>
+      <c r="J21">
+        <f t="shared" si="8"/>
+        <v>0.14374187096373908</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>0.14374187096373908</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="9"/>
+        <v>0.42862000000000045</v>
+      </c>
       <c r="M21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>42862.000000000044</v>
       </c>
       <c r="N21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15229.600000000093</v>
       </c>
       <c r="O21">
@@ -16260,7 +16268,7 @@
         <v>0.35531706406607433</v>
       </c>
       <c r="P21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.64468293593392567</v>
       </c>
       <c r="Q21">
@@ -16272,34 +16280,38 @@
         <v>314397.99999999977</v>
       </c>
       <c r="S21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.3351220195044435</v>
       </c>
+      <c r="U21">
+        <f t="shared" si="6"/>
+        <v>42862.000000000044</v>
+      </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
+      <c r="A22" s="15">
         <v>85</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="15">
         <v>937</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="15">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="15">
         <v>2.3302</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="15">
         <v>27632.399999999951</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="15">
         <v>0.1235</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="15">
         <v>0.97989999999999999</v>
       </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="13">
+      <c r="H22" s="15"/>
+      <c r="I22" s="11">
         <f>E22/$E$5</f>
         <v>0.27632399999999951</v>
       </c>
@@ -16308,19 +16320,19 @@
         <v>0.48138484407294552</v>
       </c>
       <c r="K22">
-        <f>M$1+M$2*J22</f>
+        <f t="shared" si="0"/>
         <v>0.48138484407294552</v>
       </c>
       <c r="L22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.27632399999999951</v>
       </c>
       <c r="M22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>27632.399999999951</v>
       </c>
       <c r="N22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27632.399999999951</v>
       </c>
       <c r="O22">
@@ -16328,7 +16340,7 @@
         <v>1</v>
       </c>
       <c r="P22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q22">
@@ -16343,6 +16355,10 @@
         <f>R22/M22</f>
         <v>5.0000000000000009</v>
       </c>
+      <c r="U22">
+        <f>Q22/5+N22/2</f>
+        <v>41448.599999999933</v>
+      </c>
       <c r="V22">
         <v>172927</v>
       </c>
@@ -16352,173 +16368,173 @@
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="12"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="12"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="15"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F2:F4"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/iussp.xlsx
+++ b/data-raw/iussp.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabel\Github\agesched\data-raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Romaniuk" sheetId="1" r:id="rId1"/>
@@ -14,12 +19,12 @@
     <sheet name="Booth" sheetId="7" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="112">
   <si>
     <t>x</t>
   </si>
@@ -534,6 +539,12 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -561,18 +572,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1094,11 +1099,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="287256576"/>
-        <c:axId val="287258496"/>
+        <c:axId val="213323688"/>
+        <c:axId val="213324080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="287256576"/>
+        <c:axId val="213323688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -1110,12 +1115,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="287258496"/>
+        <c:crossAx val="213324080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="287258496"/>
+        <c:axId val="213324080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1127,7 +1132,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="287256576"/>
+        <c:crossAx val="213323688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5.0000000000000017E-2"/>
@@ -1900,11 +1905,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="285294592"/>
-        <c:axId val="285296128"/>
+        <c:axId val="213324864"/>
+        <c:axId val="213325256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="285294592"/>
+        <c:axId val="213324864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -1916,12 +1921,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="285296128"/>
+        <c:crossAx val="213325256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="285296128"/>
+        <c:axId val="213325256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1932,7 +1937,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="285294592"/>
+        <c:crossAx val="213324864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2667,11 +2672,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="285624576"/>
-        <c:axId val="285933568"/>
+        <c:axId val="213326432"/>
+        <c:axId val="213326824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="285624576"/>
+        <c:axId val="213326432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2681,12 +2686,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="285933568"/>
+        <c:crossAx val="213326824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="285933568"/>
+        <c:axId val="213326824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2697,7 +2702,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="285624576"/>
+        <c:crossAx val="213326432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3600,13 +3605,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="286110080"/>
-        <c:axId val="286111616"/>
+        <c:axId val="215314992"/>
+        <c:axId val="215315384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="286110080"/>
+        <c:axId val="215314992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3649,7 +3653,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286111616"/>
+        <c:crossAx val="215315384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3657,7 +3661,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="286111616"/>
+        <c:axId val="215315384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3708,7 +3712,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286110080"/>
+        <c:crossAx val="215314992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4418,11 +4422,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="285947008"/>
-        <c:axId val="285948544"/>
+        <c:axId val="213328392"/>
+        <c:axId val="213328000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="285947008"/>
+        <c:axId val="213328392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -4434,12 +4438,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="285948544"/>
+        <c:crossAx val="213328000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="285948544"/>
+        <c:axId val="213328000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.3000000000000001"/>
@@ -4451,13 +4455,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="285947008"/>
+        <c:crossAx val="213328392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="0"/>
@@ -5152,7 +5157,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5160,6 +5165,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5193,7 +5204,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5201,6 +5212,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5271,7 +5288,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5279,6 +5296,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5312,7 +5335,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5320,6 +5343,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5353,7 +5382,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5361,6 +5390,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5394,7 +5429,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5402,6 +5437,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5502,7 +5543,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5510,6 +5551,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5543,7 +5590,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5551,6 +5598,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5584,7 +5637,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5592,6 +5645,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5645,7 +5704,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5680,7 +5739,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9075,14 +9134,14 @@
         <v>32</v>
       </c>
       <c r="U5" s="6"/>
-      <c r="V5" s="19" t="s">
+      <c r="V5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19" t="s">
+      <c r="W5" s="10"/>
+      <c r="X5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Y5" s="19"/>
+      <c r="Y5" s="10"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
@@ -10262,15 +10321,15 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AH17" s="18" t="s">
+      <c r="AH17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AI17" s="18"/>
-      <c r="AJ17" s="18"/>
-      <c r="AK17" s="18"/>
-      <c r="AL17" s="18"/>
-      <c r="AM17" s="18"/>
-      <c r="AN17" s="18"/>
+      <c r="AI17" s="9"/>
+      <c r="AJ17" s="9"/>
+      <c r="AK17" s="9"/>
+      <c r="AL17" s="9"/>
+      <c r="AM17" s="9"/>
+      <c r="AN17" s="9"/>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -14982,26 +15041,26 @@
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
       <c r="L1" t="s">
         <v>3</v>
       </c>
@@ -15009,28 +15068,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20">
+    <row r="2" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19">
         <v>100000</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="19">
         <v>100000</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="9"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="11"/>
       <c r="L2" t="s">
         <v>23</v>
       </c>
@@ -15038,31 +15097,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="16" t="s">
+    <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="16" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="12"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="14"/>
       <c r="M4" t="s">
         <v>108</v>
       </c>
@@ -15084,26 +15143,23 @@
       <c r="S4" t="s">
         <v>111</v>
       </c>
-      <c r="U4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
         <v>0</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="18">
         <v>100000</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18">
         <v>100000</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="11"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="13"/>
       <c r="M5">
         <v>100000</v>
       </c>
@@ -15131,35 +15187,31 @@
         <f>R5/M5</f>
         <v>73.407390000000007</v>
       </c>
-      <c r="U5">
-        <f>Q5/5+N5/2</f>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="17">
         <v>61196</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="17">
         <v>0.61199999999999999</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="17">
         <v>-0.2278</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="17">
         <v>98370.799999999988</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="17">
         <v>0.85880000000000001</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="17">
         <v>-0.90269999999999995</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="11">
+      <c r="H6" s="17"/>
+      <c r="I6" s="13">
         <f>E6/$E$5</f>
         <v>0.98370799999999992</v>
       </c>
@@ -15168,7 +15220,7 @@
         <v>-2.050327457630106</v>
       </c>
       <c r="K6">
-        <f t="shared" ref="K6:K22" si="0">M$1+M$2*J6</f>
+        <f>M$1+M$2*J6</f>
         <v>-2.050327457630106</v>
       </c>
       <c r="L6">
@@ -15180,19 +15232,19 @@
         <v>98370.8</v>
       </c>
       <c r="N6">
-        <f t="shared" ref="N6:N22" si="1">M6-M7</f>
+        <f t="shared" ref="N6:N22" si="0">M6-M7</f>
         <v>149.99999999998545</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6:O20" si="2">N6/M6</f>
+        <f t="shared" ref="O6:O22" si="1">N6/M6</f>
         <v>1.5248427378854847E-3</v>
       </c>
       <c r="P6">
-        <f t="shared" ref="P6:P22" si="3">1-O6</f>
+        <f t="shared" ref="P6:P22" si="2">1-O6</f>
         <v>0.99847515726211455</v>
       </c>
       <c r="Q6">
-        <f t="shared" ref="Q6:Q20" si="4">5*(M6-N6)+2.5*N6</f>
+        <f t="shared" ref="Q6:Q22" si="3">5*(M6-N6)+2.5*N6</f>
         <v>491479.00000000006</v>
       </c>
       <c r="R6">
@@ -15200,71 +15252,67 @@
         <v>6844812</v>
       </c>
       <c r="S6">
-        <f t="shared" ref="S6:S21" si="5">R6/M6</f>
+        <f t="shared" ref="S6:S22" si="4">R6/M6</f>
         <v>69.581745802616226</v>
       </c>
-      <c r="U6">
-        <f t="shared" ref="U6:U22" si="6">Q6/5+N6/2</f>
-        <v>98370.800000000017</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
         <v>10</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="17">
         <v>58141</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="17">
         <v>0.58140000000000003</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="17">
         <v>-0.1643</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="17">
         <v>98220.800000000017</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="17">
         <v>0.84899999999999998</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="17">
         <v>-0.86339999999999995</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="11">
-        <f t="shared" ref="I7:I21" si="7">E7/$E$5</f>
+      <c r="H7" s="17"/>
+      <c r="I7" s="13">
+        <f t="shared" ref="I7:I22" si="5">E7/$E$5</f>
         <v>0.98220800000000019</v>
       </c>
       <c r="J7">
-        <f t="shared" ref="J7:J21" si="8">0.5*LN((1-I7)/I7)</f>
+        <f t="shared" ref="J7:J22" si="6">0.5*LN((1-I7)/I7)</f>
         <v>-2.0055270902422344</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
+        <f>M$1+M$2*J7</f>
         <v>-2.0055270902422344</v>
       </c>
       <c r="L7">
-        <f t="shared" ref="L7:L22" si="9">1/(EXP(2*K7)+1)</f>
+        <f t="shared" ref="L7:L22" si="7">1/(EXP(2*K7)+1)</f>
         <v>0.98220800000000019</v>
       </c>
       <c r="M7">
-        <f t="shared" ref="M7:M22" si="10">M$5*L7</f>
+        <f t="shared" ref="M7:M22" si="8">M$5*L7</f>
         <v>98220.800000000017</v>
       </c>
       <c r="N7">
+        <f t="shared" si="0"/>
+        <v>150.40000000002328</v>
+      </c>
+      <c r="O7">
         <f t="shared" si="1"/>
-        <v>150.40000000002328</v>
-      </c>
-      <c r="O7">
+        <v>1.5312438913145001E-3</v>
+      </c>
+      <c r="P7">
         <f t="shared" si="2"/>
-        <v>1.5312438913145001E-3</v>
-      </c>
-      <c r="P7">
+        <v>0.99846875610868546</v>
+      </c>
+      <c r="Q7">
         <f t="shared" si="3"/>
-        <v>0.99846875610868546</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="4"/>
         <v>490728.00000000006</v>
       </c>
       <c r="R7">
@@ -15272,71 +15320,67 @@
         <v>6353333</v>
       </c>
       <c r="S7">
+        <f t="shared" si="4"/>
+        <v>64.68419112855932</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>15</v>
+      </c>
+      <c r="B8" s="17">
+        <v>55864</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0.55859999999999999</v>
+      </c>
+      <c r="D8" s="17">
+        <v>-0.1178</v>
+      </c>
+      <c r="E8" s="17">
+        <v>98070.399999999994</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0.8448</v>
+      </c>
+      <c r="G8" s="17">
+        <v>-0.84719999999999995</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="13">
         <f t="shared" si="5"/>
-        <v>64.68419112855932</v>
-      </c>
-      <c r="U7">
+        <v>0.98070399999999991</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="6"/>
-        <v>98220.800000000017</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
-        <v>15</v>
-      </c>
-      <c r="B8" s="15">
-        <v>55864</v>
-      </c>
-      <c r="C8" s="15">
-        <v>0.55859999999999999</v>
-      </c>
-      <c r="D8" s="15">
-        <v>-0.1178</v>
-      </c>
-      <c r="E8" s="15">
-        <v>98070.399999999994</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0.8448</v>
-      </c>
-      <c r="G8" s="15">
-        <v>-0.84719999999999995</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="11">
+        <v>-1.9641864302822296</v>
+      </c>
+      <c r="K8">
+        <f>M$1+M$2*J8</f>
+        <v>-1.9641864302822296</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="7"/>
         <v>0.98070399999999991</v>
       </c>
-      <c r="J8">
+      <c r="M8">
         <f t="shared" si="8"/>
-        <v>-1.9641864302822296</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>-1.9641864302822296</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="9"/>
-        <v>0.98070399999999991</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="10"/>
         <v>98070.399999999994</v>
       </c>
       <c r="N8">
+        <f t="shared" si="0"/>
+        <v>479.59999999997672</v>
+      </c>
+      <c r="O8">
         <f t="shared" si="1"/>
-        <v>479.59999999997672</v>
-      </c>
-      <c r="O8">
+        <v>4.8903644728682328E-3</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="2"/>
-        <v>4.8903644728682328E-3</v>
-      </c>
-      <c r="P8">
+        <v>0.99510963552713172</v>
+      </c>
+      <c r="Q8">
         <f t="shared" si="3"/>
-        <v>0.99510963552713172</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="4"/>
         <v>489153.00000000006</v>
       </c>
       <c r="R8">
@@ -15344,71 +15388,67 @@
         <v>5862605</v>
       </c>
       <c r="S8">
+        <f t="shared" si="4"/>
+        <v>59.779556318726144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>20</v>
+      </c>
+      <c r="B9" s="17">
+        <v>53002</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0.53</v>
+      </c>
+      <c r="D9" s="17">
+        <v>-6.0100000000000001E-2</v>
+      </c>
+      <c r="E9" s="17">
+        <v>97590.800000000017</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="G9" s="17">
+        <v>-0.82540000000000002</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="13">
         <f t="shared" si="5"/>
-        <v>59.779556318726144</v>
-      </c>
-      <c r="U8">
+        <v>0.97590800000000022</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="6"/>
-        <v>98070.399999999994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
-        <v>20</v>
-      </c>
-      <c r="B9" s="15">
-        <v>53002</v>
-      </c>
-      <c r="C9" s="15">
-        <v>0.53</v>
-      </c>
-      <c r="D9" s="15">
-        <v>-6.0100000000000001E-2</v>
-      </c>
-      <c r="E9" s="15">
-        <v>97590.800000000017</v>
-      </c>
-      <c r="F9" s="15">
-        <v>0.83899999999999997</v>
-      </c>
-      <c r="G9" s="15">
-        <v>-0.82540000000000002</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="11">
+        <v>-1.8507442422467879</v>
+      </c>
+      <c r="K9">
+        <f>M$1+M$2*J9</f>
+        <v>-1.8507442422467879</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="7"/>
         <v>0.97590800000000022</v>
       </c>
-      <c r="J9">
+      <c r="M9">
         <f t="shared" si="8"/>
-        <v>-1.8507442422467879</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>-1.8507442422467879</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="9"/>
-        <v>0.97590800000000022</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="10"/>
         <v>97590.800000000017</v>
       </c>
       <c r="N9">
+        <f t="shared" si="0"/>
+        <v>644.80000000004657</v>
+      </c>
+      <c r="O9">
         <f t="shared" si="1"/>
-        <v>644.80000000004657</v>
-      </c>
-      <c r="O9">
+        <v>6.6071801850179157E-3</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="2"/>
-        <v>6.6071801850179157E-3</v>
-      </c>
-      <c r="P9">
+        <v>0.99339281981498206</v>
+      </c>
+      <c r="Q9">
         <f t="shared" si="3"/>
-        <v>0.99339281981498206</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="4"/>
         <v>486342</v>
       </c>
       <c r="R9">
@@ -15416,71 +15456,67 @@
         <v>5373452</v>
       </c>
       <c r="S9">
+        <f t="shared" si="4"/>
+        <v>55.061050836759193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>25</v>
+      </c>
+      <c r="B10" s="17">
+        <v>49614</v>
+      </c>
+      <c r="C10" s="17">
+        <v>0.49609999999999999</v>
+      </c>
+      <c r="D10" s="17">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="E10" s="17">
+        <v>96945.999999999971</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="G10" s="17">
+        <v>-0.80010000000000003</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="13">
         <f t="shared" si="5"/>
-        <v>55.061050836759193</v>
-      </c>
-      <c r="U9">
+        <v>0.96945999999999966</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="6"/>
-        <v>97590.800000000017</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
-        <v>25</v>
-      </c>
-      <c r="B10" s="15">
-        <v>49614</v>
-      </c>
-      <c r="C10" s="15">
-        <v>0.49609999999999999</v>
-      </c>
-      <c r="D10" s="15">
-        <v>7.7000000000000002E-3</v>
-      </c>
-      <c r="E10" s="15">
-        <v>96945.999999999971</v>
-      </c>
-      <c r="F10" s="15">
-        <v>0.83199999999999996</v>
-      </c>
-      <c r="G10" s="15">
-        <v>-0.80010000000000003</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="11">
+        <v>-1.7288509578302247</v>
+      </c>
+      <c r="K10">
+        <f>M$1+M$2*J10</f>
+        <v>-1.7288509578302247</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="7"/>
         <v>0.96945999999999966</v>
       </c>
-      <c r="J10">
+      <c r="M10">
         <f t="shared" si="8"/>
-        <v>-1.7288509578302247</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="0"/>
-        <v>-1.7288509578302247</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="9"/>
-        <v>0.96945999999999966</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="10"/>
         <v>96945.999999999971</v>
       </c>
       <c r="N10">
+        <f t="shared" si="0"/>
+        <v>637.59999999994761</v>
+      </c>
+      <c r="O10">
         <f t="shared" si="1"/>
-        <v>637.59999999994761</v>
-      </c>
-      <c r="O10">
+        <v>6.5768572194824732E-3</v>
+      </c>
+      <c r="P10">
         <f t="shared" si="2"/>
-        <v>6.5768572194824732E-3</v>
-      </c>
-      <c r="P10">
+        <v>0.99342314278051758</v>
+      </c>
+      <c r="Q10">
         <f t="shared" si="3"/>
-        <v>0.99342314278051758</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="4"/>
         <v>483136</v>
       </c>
       <c r="R10">
@@ -15488,71 +15524,67 @@
         <v>4887110</v>
       </c>
       <c r="S10">
+        <f t="shared" si="4"/>
+        <v>50.410640975388375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>30</v>
+      </c>
+      <c r="B11" s="17">
+        <v>46072</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0.4607</v>
+      </c>
+      <c r="D11" s="17">
+        <v>7.8700000000000006E-2</v>
+      </c>
+      <c r="E11" s="17">
+        <v>96308.400000000023</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0.82420000000000004</v>
+      </c>
+      <c r="G11" s="17">
+        <v>-0.77270000000000005</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="13">
         <f t="shared" si="5"/>
-        <v>50.410640975388375</v>
-      </c>
-      <c r="U10">
+        <v>0.96308400000000027</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="6"/>
-        <v>96945.999999999971</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
-        <v>30</v>
-      </c>
-      <c r="B11" s="15">
-        <v>46072</v>
-      </c>
-      <c r="C11" s="15">
-        <v>0.4607</v>
-      </c>
-      <c r="D11" s="15">
-        <v>7.8700000000000006E-2</v>
-      </c>
-      <c r="E11" s="15">
-        <v>96308.400000000023</v>
-      </c>
-      <c r="F11" s="15">
-        <v>0.82420000000000004</v>
-      </c>
-      <c r="G11" s="15">
-        <v>-0.77270000000000005</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="11">
+        <v>-1.6307477870025218</v>
+      </c>
+      <c r="K11">
+        <f>M$1+M$2*J11</f>
+        <v>-1.6307477870025218</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="7"/>
         <v>0.96308400000000027</v>
       </c>
-      <c r="J11">
+      <c r="M11">
         <f t="shared" si="8"/>
-        <v>-1.6307477870025218</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="0"/>
-        <v>-1.6307477870025218</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="9"/>
-        <v>0.96308400000000027</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="10"/>
         <v>96308.400000000023</v>
       </c>
       <c r="N11">
+        <f t="shared" si="0"/>
+        <v>668.80000000006112</v>
+      </c>
+      <c r="O11">
         <f t="shared" si="1"/>
-        <v>668.80000000006112</v>
-      </c>
-      <c r="O11">
+        <v>6.9443579168593905E-3</v>
+      </c>
+      <c r="P11">
         <f t="shared" si="2"/>
-        <v>6.9443579168593905E-3</v>
-      </c>
-      <c r="P11">
+        <v>0.99305564208314057</v>
+      </c>
+      <c r="Q11">
         <f t="shared" si="3"/>
-        <v>0.99305564208314057</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="4"/>
         <v>479870</v>
       </c>
       <c r="R11">
@@ -15560,71 +15592,67 @@
         <v>4403974</v>
       </c>
       <c r="S11">
+        <f t="shared" si="4"/>
+        <v>45.727828517554016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>35</v>
+      </c>
+      <c r="B12" s="17">
+        <v>42361</v>
+      </c>
+      <c r="C12" s="17">
+        <v>0.42359999999999998</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0.154</v>
+      </c>
+      <c r="E12" s="17">
+        <v>95639.599999999977</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.81469999999999998</v>
+      </c>
+      <c r="G12" s="17">
+        <v>-0.74050000000000005</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="13">
         <f t="shared" si="5"/>
-        <v>45.727828517554016</v>
-      </c>
-      <c r="U11">
+        <v>0.9563959999999998</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="6"/>
-        <v>96308.400000000023</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
-        <v>35</v>
-      </c>
-      <c r="B12" s="15">
-        <v>42361</v>
-      </c>
-      <c r="C12" s="15">
-        <v>0.42359999999999998</v>
-      </c>
-      <c r="D12" s="15">
-        <v>0.154</v>
-      </c>
-      <c r="E12" s="15">
-        <v>95639.599999999977</v>
-      </c>
-      <c r="F12" s="15">
-        <v>0.81469999999999998</v>
-      </c>
-      <c r="G12" s="15">
-        <v>-0.74050000000000005</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="11">
+        <v>-1.5440115819794129</v>
+      </c>
+      <c r="K12">
+        <f>M$1+M$2*J12</f>
+        <v>-1.5440115819794129</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="7"/>
-        <v>0.9563959999999998</v>
-      </c>
-      <c r="J12">
+        <v>0.95639599999999969</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="8"/>
-        <v>-1.5440115819794129</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="0"/>
-        <v>-1.5440115819794129</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="9"/>
-        <v>0.95639599999999969</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="10"/>
         <v>95639.599999999962</v>
       </c>
       <c r="N12">
+        <f t="shared" si="0"/>
+        <v>872.7999999999447</v>
+      </c>
+      <c r="O12">
         <f t="shared" si="1"/>
-        <v>872.7999999999447</v>
-      </c>
-      <c r="O12">
+        <v>9.1259269173014634E-3</v>
+      </c>
+      <c r="P12">
         <f t="shared" si="2"/>
-        <v>9.1259269173014634E-3</v>
-      </c>
-      <c r="P12">
+        <v>0.99087407308269859</v>
+      </c>
+      <c r="Q12">
         <f t="shared" si="3"/>
-        <v>0.99087407308269859</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="4"/>
         <v>476016</v>
       </c>
       <c r="R12">
@@ -15632,71 +15660,67 @@
         <v>3924104</v>
       </c>
       <c r="S12">
+        <f t="shared" si="4"/>
+        <v>41.030117231774305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>40</v>
+      </c>
+      <c r="B13" s="17">
+        <v>38624</v>
+      </c>
+      <c r="C13" s="17">
+        <v>0.38619999999999999</v>
+      </c>
+      <c r="D13" s="17">
+        <v>0.2316</v>
+      </c>
+      <c r="E13" s="17">
+        <v>94766.800000000017</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0.80289999999999995</v>
+      </c>
+      <c r="G13" s="17">
+        <v>-0.70240000000000002</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="13">
         <f t="shared" si="5"/>
-        <v>41.030117231774305</v>
-      </c>
-      <c r="U12">
+        <v>0.94766800000000018</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="6"/>
-        <v>95639.599999999977</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
-        <v>40</v>
-      </c>
-      <c r="B13" s="15">
-        <v>38624</v>
-      </c>
-      <c r="C13" s="15">
-        <v>0.38619999999999999</v>
-      </c>
-      <c r="D13" s="15">
-        <v>0.2316</v>
-      </c>
-      <c r="E13" s="15">
-        <v>94766.800000000017</v>
-      </c>
-      <c r="F13" s="15">
-        <v>0.80289999999999995</v>
-      </c>
-      <c r="G13" s="15">
-        <v>-0.70240000000000002</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="11">
+        <v>-1.4481980956488743</v>
+      </c>
+      <c r="K13">
+        <f>M$1+M$2*J13</f>
+        <v>-1.4481980956488743</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="7"/>
         <v>0.94766800000000018</v>
       </c>
-      <c r="J13">
+      <c r="M13">
         <f t="shared" si="8"/>
-        <v>-1.4481980956488743</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="0"/>
-        <v>-1.4481980956488743</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="9"/>
-        <v>0.94766800000000018</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="10"/>
         <v>94766.800000000017</v>
       </c>
       <c r="N13">
+        <f t="shared" si="0"/>
+        <v>1323.2000000000407</v>
+      </c>
+      <c r="O13">
         <f t="shared" si="1"/>
-        <v>1323.2000000000407</v>
-      </c>
-      <c r="O13">
+        <v>1.3962695796418583E-2</v>
+      </c>
+      <c r="P13">
         <f t="shared" si="2"/>
-        <v>1.3962695796418583E-2</v>
-      </c>
-      <c r="P13">
+        <v>0.98603730420358138</v>
+      </c>
+      <c r="Q13">
         <f t="shared" si="3"/>
-        <v>0.98603730420358138</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="4"/>
         <v>470526</v>
       </c>
       <c r="R13">
@@ -15704,71 +15728,67 @@
         <v>3448088</v>
       </c>
       <c r="S13">
+        <f t="shared" si="4"/>
+        <v>36.384978705622636</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>45</v>
+      </c>
+      <c r="B14" s="17">
+        <v>34968</v>
+      </c>
+      <c r="C14" s="17">
+        <v>0.34970000000000001</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0.31019999999999998</v>
+      </c>
+      <c r="E14" s="17">
+        <v>93443.599999999977</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0.78739999999999999</v>
+      </c>
+      <c r="G14" s="17">
+        <v>-0.65480000000000005</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="13">
         <f t="shared" si="5"/>
-        <v>36.384978705622636</v>
-      </c>
-      <c r="U13">
+        <v>0.93443599999999982</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="6"/>
-        <v>94766.800000000017</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
-        <v>45</v>
-      </c>
-      <c r="B14" s="15">
-        <v>34968</v>
-      </c>
-      <c r="C14" s="15">
-        <v>0.34970000000000001</v>
-      </c>
-      <c r="D14" s="15">
-        <v>0.31019999999999998</v>
-      </c>
-      <c r="E14" s="15">
-        <v>93443.599999999977</v>
-      </c>
-      <c r="F14" s="15">
-        <v>0.78739999999999999</v>
-      </c>
-      <c r="G14" s="15">
-        <v>-0.65480000000000005</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="11">
+        <v>-1.3284581869509726</v>
+      </c>
+      <c r="K14">
+        <f>M$1+M$2*J14</f>
+        <v>-1.3284581869509726</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="7"/>
         <v>0.93443599999999982</v>
       </c>
-      <c r="J14">
+      <c r="M14">
         <f t="shared" si="8"/>
-        <v>-1.3284581869509726</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="0"/>
-        <v>-1.3284581869509726</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="9"/>
-        <v>0.93443599999999982</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="10"/>
         <v>93443.599999999977</v>
       </c>
       <c r="N14">
+        <f t="shared" si="0"/>
+        <v>2078.3999999999651</v>
+      </c>
+      <c r="O14">
         <f t="shared" si="1"/>
-        <v>2078.3999999999651</v>
-      </c>
-      <c r="O14">
+        <v>2.2242293747243957E-2</v>
+      </c>
+      <c r="P14">
         <f t="shared" si="2"/>
-        <v>2.2242293747243957E-2</v>
-      </c>
-      <c r="P14">
+        <v>0.97775770625275604</v>
+      </c>
+      <c r="Q14">
         <f t="shared" si="3"/>
-        <v>0.97775770625275604</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="4"/>
         <v>462022</v>
       </c>
       <c r="R14">
@@ -15776,71 +15796,67 @@
         <v>2977562</v>
       </c>
       <c r="S14">
+        <f t="shared" si="4"/>
+        <v>31.864804010119482</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>50</v>
+      </c>
+      <c r="B15" s="17">
+        <v>31396</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0.314</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0.39079999999999998</v>
+      </c>
+      <c r="E15" s="17">
+        <v>91365.200000000012</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0.7661</v>
+      </c>
+      <c r="G15" s="17">
+        <v>-0.59319999999999995</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="13">
         <f t="shared" si="5"/>
-        <v>31.864804010119482</v>
-      </c>
-      <c r="U14">
+        <v>0.91365200000000013</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="6"/>
-        <v>93443.599999999977</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
-        <v>50</v>
-      </c>
-      <c r="B15" s="15">
-        <v>31396</v>
-      </c>
-      <c r="C15" s="15">
-        <v>0.314</v>
-      </c>
-      <c r="D15" s="15">
-        <v>0.39079999999999998</v>
-      </c>
-      <c r="E15" s="15">
-        <v>91365.200000000012</v>
-      </c>
-      <c r="F15" s="15">
-        <v>0.7661</v>
-      </c>
-      <c r="G15" s="15">
-        <v>-0.59319999999999995</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="11">
+        <v>-1.1795320560988163</v>
+      </c>
+      <c r="K15">
+        <f>M$1+M$2*J15</f>
+        <v>-1.1795320560988163</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="7"/>
         <v>0.91365200000000013</v>
       </c>
-      <c r="J15">
+      <c r="M15">
         <f t="shared" si="8"/>
-        <v>-1.1795320560988163</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="0"/>
-        <v>-1.1795320560988163</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="9"/>
-        <v>0.91365200000000013</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="10"/>
         <v>91365.200000000012</v>
       </c>
       <c r="N15">
+        <f t="shared" si="0"/>
+        <v>3192.0000000000291</v>
+      </c>
+      <c r="O15">
         <f t="shared" si="1"/>
-        <v>3192.0000000000291</v>
-      </c>
-      <c r="O15">
+        <v>3.4936715510938833E-2</v>
+      </c>
+      <c r="P15">
         <f t="shared" si="2"/>
-        <v>3.4936715510938833E-2</v>
-      </c>
-      <c r="P15">
+        <v>0.9650632844890612</v>
+      </c>
+      <c r="Q15">
         <f t="shared" si="3"/>
-        <v>0.9650632844890612</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="4"/>
         <v>448845.99999999994</v>
       </c>
       <c r="R15">
@@ -15848,71 +15864,67 @@
         <v>2515540</v>
       </c>
       <c r="S15">
+        <f t="shared" si="4"/>
+        <v>27.532802423679911</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>55</v>
+      </c>
+      <c r="B16" s="17">
+        <v>27280</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0.27279999999999999</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0.49020000000000002</v>
+      </c>
+      <c r="E16" s="17">
+        <v>88173.199999999983</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0.7329</v>
+      </c>
+      <c r="G16" s="17">
+        <v>-0.50480000000000003</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="13">
         <f t="shared" si="5"/>
-        <v>27.532802423679911</v>
-      </c>
-      <c r="U15">
+        <v>0.88173199999999985</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="6"/>
-        <v>91365.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
-        <v>55</v>
-      </c>
-      <c r="B16" s="15">
-        <v>27280</v>
-      </c>
-      <c r="C16" s="15">
-        <v>0.27279999999999999</v>
-      </c>
-      <c r="D16" s="15">
-        <v>0.49020000000000002</v>
-      </c>
-      <c r="E16" s="15">
-        <v>88173.199999999983</v>
-      </c>
-      <c r="F16" s="15">
-        <v>0.7329</v>
-      </c>
-      <c r="G16" s="15">
-        <v>-0.50480000000000003</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="11">
+        <v>-1.0044674596486687</v>
+      </c>
+      <c r="K16">
+        <f>M$1+M$2*J16</f>
+        <v>-1.0044674596486687</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="7"/>
         <v>0.88173199999999985</v>
       </c>
-      <c r="J16">
+      <c r="M16">
         <f t="shared" si="8"/>
-        <v>-1.0044674596486687</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="0"/>
-        <v>-1.0044674596486687</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="9"/>
-        <v>0.88173199999999985</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="10"/>
         <v>88173.199999999983</v>
       </c>
       <c r="N16">
+        <f t="shared" si="0"/>
+        <v>4656.7999999999447</v>
+      </c>
+      <c r="O16">
         <f t="shared" si="1"/>
-        <v>4656.7999999999447</v>
-      </c>
-      <c r="O16">
+        <v>5.2814233803468009E-2</v>
+      </c>
+      <c r="P16">
         <f t="shared" si="2"/>
-        <v>5.2814233803468009E-2</v>
-      </c>
-      <c r="P16">
+        <v>0.94718576619653194</v>
+      </c>
+      <c r="Q16">
         <f t="shared" si="3"/>
-        <v>0.94718576619653194</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="4"/>
         <v>429224.00000000006</v>
       </c>
       <c r="R16">
@@ -15920,71 +15932,67 @@
         <v>2066694</v>
       </c>
       <c r="S16">
+        <f t="shared" si="4"/>
+        <v>23.439026824477285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>60</v>
+      </c>
+      <c r="B17" s="17">
+        <v>22764</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0.2276</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0.6109</v>
+      </c>
+      <c r="E17" s="17">
+        <v>83516.400000000023</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0.68220000000000003</v>
+      </c>
+      <c r="G17" s="17">
+        <v>-0.38190000000000002</v>
+      </c>
+      <c r="H17" s="17"/>
+      <c r="I17" s="13">
         <f t="shared" si="5"/>
-        <v>23.439026824477285</v>
-      </c>
-      <c r="U16">
+        <v>0.83516400000000024</v>
+      </c>
+      <c r="J17">
         <f t="shared" si="6"/>
-        <v>88173.199999999983</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
-        <v>60</v>
-      </c>
-      <c r="B17" s="15">
-        <v>22764</v>
-      </c>
-      <c r="C17" s="15">
-        <v>0.2276</v>
-      </c>
-      <c r="D17" s="15">
-        <v>0.6109</v>
-      </c>
-      <c r="E17" s="15">
-        <v>83516.400000000023</v>
-      </c>
-      <c r="F17" s="15">
-        <v>0.68220000000000003</v>
-      </c>
-      <c r="G17" s="15">
-        <v>-0.38190000000000002</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="11">
+        <v>-0.81133853626489583</v>
+      </c>
+      <c r="K17">
+        <f>M$1+M$2*J17</f>
+        <v>-0.81133853626489583</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="7"/>
-        <v>0.83516400000000024</v>
-      </c>
-      <c r="J17">
+        <v>0.83516400000000035</v>
+      </c>
+      <c r="M17">
         <f t="shared" si="8"/>
-        <v>-0.81133853626489583</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="0"/>
-        <v>-0.81133853626489583</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="9"/>
-        <v>0.83516400000000035</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="10"/>
         <v>83516.400000000038</v>
       </c>
       <c r="N17">
+        <f t="shared" si="0"/>
+        <v>6606.4000000000669</v>
+      </c>
+      <c r="O17">
         <f t="shared" si="1"/>
-        <v>6606.4000000000669</v>
-      </c>
-      <c r="O17">
+        <v>7.910302647144829E-2</v>
+      </c>
+      <c r="P17">
         <f t="shared" si="2"/>
-        <v>7.910302647144829E-2</v>
-      </c>
-      <c r="P17">
+        <v>0.92089697352855171</v>
+      </c>
+      <c r="Q17">
         <f t="shared" si="3"/>
-        <v>0.92089697352855171</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="4"/>
         <v>401066.00000000006</v>
       </c>
       <c r="R17">
@@ -15992,71 +16000,67 @@
         <v>1637469.9999999998</v>
       </c>
       <c r="S17">
+        <f t="shared" si="4"/>
+        <v>19.606568290778807</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>65</v>
+      </c>
+      <c r="B18" s="17">
+        <v>17384</v>
+      </c>
+      <c r="C18" s="17">
+        <v>0.17380000000000001</v>
+      </c>
+      <c r="D18" s="17">
+        <v>0.77929999999999999</v>
+      </c>
+      <c r="E18" s="17">
+        <v>76909.999999999971</v>
+      </c>
+      <c r="F18" s="17">
+        <v>0.60629999999999995</v>
+      </c>
+      <c r="G18" s="17">
+        <v>-0.21579999999999999</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="I18" s="13">
         <f t="shared" si="5"/>
-        <v>19.606568290778807</v>
-      </c>
-      <c r="U17">
+        <v>0.76909999999999967</v>
+      </c>
+      <c r="J18">
         <f t="shared" si="6"/>
-        <v>83516.400000000052</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
-        <v>65</v>
-      </c>
-      <c r="B18" s="15">
-        <v>17384</v>
-      </c>
-      <c r="C18" s="15">
-        <v>0.17380000000000001</v>
-      </c>
-      <c r="D18" s="15">
-        <v>0.77929999999999999</v>
-      </c>
-      <c r="E18" s="15">
-        <v>76909.999999999971</v>
-      </c>
-      <c r="F18" s="15">
-        <v>0.60629999999999995</v>
-      </c>
-      <c r="G18" s="15">
-        <v>-0.21579999999999999</v>
-      </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="11">
+        <v>-0.60161814185127838</v>
+      </c>
+      <c r="K18">
+        <f>M$1+M$2*J18</f>
+        <v>-0.60161814185127838</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="7"/>
         <v>0.76909999999999967</v>
       </c>
-      <c r="J18">
+      <c r="M18">
         <f t="shared" si="8"/>
-        <v>-0.60161814185127838</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="0"/>
-        <v>-0.60161814185127838</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="9"/>
-        <v>0.76909999999999967</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="10"/>
         <v>76909.999999999971</v>
       </c>
       <c r="N18">
+        <f t="shared" si="0"/>
+        <v>8920.7999999999302</v>
+      </c>
+      <c r="O18">
         <f t="shared" si="1"/>
-        <v>8920.7999999999302</v>
-      </c>
-      <c r="O18">
+        <v>0.11599011832011355</v>
+      </c>
+      <c r="P18">
         <f t="shared" si="2"/>
-        <v>0.11599011832011355</v>
-      </c>
-      <c r="P18">
+        <v>0.88400988167988648</v>
+      </c>
+      <c r="Q18">
         <f t="shared" si="3"/>
-        <v>0.88400988167988648</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="4"/>
         <v>362248.00000000006</v>
       </c>
       <c r="R18">
@@ -16064,71 +16068,67 @@
         <v>1236403.9999999998</v>
       </c>
       <c r="S18">
+        <f t="shared" si="4"/>
+        <v>16.075984917435967</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>70</v>
+      </c>
+      <c r="B19" s="17">
+        <v>12025</v>
+      </c>
+      <c r="C19" s="17">
+        <v>0.1202</v>
+      </c>
+      <c r="D19" s="17">
+        <v>0.99509999999999998</v>
+      </c>
+      <c r="E19" s="17">
+        <v>67989.200000000041</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0.50380000000000003</v>
+      </c>
+      <c r="G19" s="17">
+        <v>-7.7000000000000002E-3</v>
+      </c>
+      <c r="H19" s="17"/>
+      <c r="I19" s="13">
         <f t="shared" si="5"/>
-        <v>16.075984917435967</v>
-      </c>
-      <c r="U18">
+        <v>0.67989200000000038</v>
+      </c>
+      <c r="J19">
         <f t="shared" si="6"/>
-        <v>76909.999999999971</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
-        <v>70</v>
-      </c>
-      <c r="B19" s="15">
-        <v>12025</v>
-      </c>
-      <c r="C19" s="15">
-        <v>0.1202</v>
-      </c>
-      <c r="D19" s="15">
-        <v>0.99509999999999998</v>
-      </c>
-      <c r="E19" s="15">
-        <v>67989.200000000041</v>
-      </c>
-      <c r="F19" s="15">
-        <v>0.50380000000000003</v>
-      </c>
-      <c r="G19" s="15">
-        <v>-7.7000000000000002E-3</v>
-      </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="11">
+        <v>-0.37663776158674578</v>
+      </c>
+      <c r="K19">
+        <f>M$1+M$2*J19</f>
+        <v>-0.37663776158674578</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="7"/>
         <v>0.67989200000000038</v>
       </c>
-      <c r="J19">
+      <c r="M19">
         <f t="shared" si="8"/>
-        <v>-0.37663776158674578</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="0"/>
-        <v>-0.37663776158674578</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="9"/>
-        <v>0.67989200000000038</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="10"/>
         <v>67989.200000000041</v>
       </c>
       <c r="N19">
+        <f t="shared" si="0"/>
+        <v>11463.200000000084</v>
+      </c>
+      <c r="O19">
         <f t="shared" si="1"/>
-        <v>11463.200000000084</v>
-      </c>
-      <c r="O19">
+        <v>0.16860324875127339</v>
+      </c>
+      <c r="P19">
         <f t="shared" si="2"/>
-        <v>0.16860324875127339</v>
-      </c>
-      <c r="P19">
+        <v>0.83139675124872658</v>
+      </c>
+      <c r="Q19">
         <f t="shared" si="3"/>
-        <v>0.83139675124872658</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="4"/>
         <v>311288</v>
       </c>
       <c r="R19">
@@ -16136,71 +16136,67 @@
         <v>874155.99999999977</v>
       </c>
       <c r="S19">
+        <f t="shared" si="4"/>
+        <v>12.857277332282175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>75</v>
+      </c>
+      <c r="B20" s="17">
+        <v>6931</v>
+      </c>
+      <c r="C20" s="17">
+        <v>6.93E-2</v>
+      </c>
+      <c r="D20" s="17">
+        <v>1.2987</v>
+      </c>
+      <c r="E20" s="17">
+        <v>56525.999999999956</v>
+      </c>
+      <c r="F20" s="17">
+        <v>0.37619999999999998</v>
+      </c>
+      <c r="G20" s="17">
+        <v>0.25290000000000001</v>
+      </c>
+      <c r="H20" s="17"/>
+      <c r="I20" s="13">
         <f t="shared" si="5"/>
-        <v>12.857277332282175</v>
-      </c>
-      <c r="U19">
+        <v>0.56525999999999954</v>
+      </c>
+      <c r="J20">
         <f t="shared" si="6"/>
-        <v>67989.200000000041</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
-        <v>75</v>
-      </c>
-      <c r="B20" s="15">
-        <v>6931</v>
-      </c>
-      <c r="C20" s="15">
-        <v>6.93E-2</v>
-      </c>
-      <c r="D20" s="15">
-        <v>1.2987</v>
-      </c>
-      <c r="E20" s="15">
-        <v>56525.999999999956</v>
-      </c>
-      <c r="F20" s="15">
-        <v>0.37619999999999998</v>
-      </c>
-      <c r="G20" s="15">
-        <v>0.25290000000000001</v>
-      </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="11">
+        <v>-0.13126882552195515</v>
+      </c>
+      <c r="K20">
+        <f>M$1+M$2*J20</f>
+        <v>-0.13126882552195515</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="7"/>
         <v>0.56525999999999954</v>
       </c>
-      <c r="J20">
+      <c r="M20">
         <f t="shared" si="8"/>
-        <v>-0.13126882552195515</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="0"/>
-        <v>-0.13126882552195515</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="9"/>
-        <v>0.56525999999999954</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="10"/>
         <v>56525.999999999956</v>
       </c>
       <c r="N20">
+        <f t="shared" si="0"/>
+        <v>13663.999999999913</v>
+      </c>
+      <c r="O20">
         <f t="shared" si="1"/>
-        <v>13663.999999999913</v>
-      </c>
-      <c r="O20">
+        <v>0.24172946962459618</v>
+      </c>
+      <c r="P20">
         <f t="shared" si="2"/>
-        <v>0.24172946962459618</v>
-      </c>
-      <c r="P20">
+        <v>0.75827053037540382</v>
+      </c>
+      <c r="Q20">
         <f t="shared" si="3"/>
-        <v>0.75827053037540382</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="4"/>
         <v>248470</v>
       </c>
       <c r="R20">
@@ -16208,59 +16204,55 @@
         <v>562867.99999999977</v>
       </c>
       <c r="S20">
+        <f t="shared" si="4"/>
+        <v>9.9576831900364464</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>80</v>
+      </c>
+      <c r="B21" s="17">
+        <v>3073</v>
+      </c>
+      <c r="C21" s="17">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="D21" s="17">
+        <v>1.7256</v>
+      </c>
+      <c r="E21" s="17">
+        <v>42862.000000000044</v>
+      </c>
+      <c r="F21" s="17">
+        <v>0.23960000000000001</v>
+      </c>
+      <c r="G21" s="17">
+        <v>0.57740000000000002</v>
+      </c>
+      <c r="H21" s="17"/>
+      <c r="I21" s="13">
         <f t="shared" si="5"/>
-        <v>9.9576831900364464</v>
-      </c>
-      <c r="U20">
+        <v>0.42862000000000045</v>
+      </c>
+      <c r="J21">
         <f t="shared" si="6"/>
-        <v>56525.999999999956</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
-        <v>80</v>
-      </c>
-      <c r="B21" s="15">
-        <v>3073</v>
-      </c>
-      <c r="C21" s="15">
-        <v>3.0700000000000002E-2</v>
-      </c>
-      <c r="D21" s="15">
-        <v>1.7256</v>
-      </c>
-      <c r="E21" s="15">
-        <v>42862.000000000044</v>
-      </c>
-      <c r="F21" s="15">
-        <v>0.23960000000000001</v>
-      </c>
-      <c r="G21" s="15">
-        <v>0.57740000000000002</v>
-      </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="11">
+        <v>0.14374187096373908</v>
+      </c>
+      <c r="K21">
+        <f>M$1+M$2*J21</f>
+        <v>0.14374187096373908</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="7"/>
         <v>0.42862000000000045</v>
       </c>
-      <c r="J21">
+      <c r="M21">
         <f t="shared" si="8"/>
-        <v>0.14374187096373908</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="0"/>
-        <v>0.14374187096373908</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="9"/>
-        <v>0.42862000000000045</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="10"/>
         <v>42862.000000000044</v>
       </c>
       <c r="N21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15229.600000000093</v>
       </c>
       <c r="O21">
@@ -16268,7 +16260,7 @@
         <v>0.35531706406607433</v>
       </c>
       <c r="P21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.64468293593392567</v>
       </c>
       <c r="Q21">
@@ -16280,38 +16272,34 @@
         <v>314397.99999999977</v>
       </c>
       <c r="S21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.3351220195044435</v>
       </c>
-      <c r="U21">
-        <f t="shared" si="6"/>
-        <v>42862.000000000044</v>
-      </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+      <c r="A22" s="17">
         <v>85</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="17">
         <v>937</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="17">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="17">
         <v>2.3302</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="17">
         <v>27632.399999999951</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="17">
         <v>0.1235</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="17">
         <v>0.97989999999999999</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="11">
+      <c r="H22" s="17"/>
+      <c r="I22" s="13">
         <f>E22/$E$5</f>
         <v>0.27632399999999951</v>
       </c>
@@ -16320,19 +16308,19 @@
         <v>0.48138484407294552</v>
       </c>
       <c r="K22">
-        <f t="shared" si="0"/>
+        <f>M$1+M$2*J22</f>
         <v>0.48138484407294552</v>
       </c>
       <c r="L22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.27632399999999951</v>
       </c>
       <c r="M22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>27632.399999999951</v>
       </c>
       <c r="N22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>27632.399999999951</v>
       </c>
       <c r="O22">
@@ -16340,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="P22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q22">
@@ -16355,10 +16343,6 @@
         <f>R22/M22</f>
         <v>5.0000000000000009</v>
       </c>
-      <c r="U22">
-        <f>Q22/5+N22/2</f>
-        <v>41448.599999999933</v>
-      </c>
       <c r="V22">
         <v>172927</v>
       </c>
@@ -16368,173 +16352,173 @@
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="F2:F4"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
